--- a/Controle Mercado.xlsx
+++ b/Controle Mercado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Karen\Excel\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA75845-6982-435E-BCED-A4AC51F49B26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB009D57-E479-47ED-B716-4D32C17E7040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="108">
   <si>
     <t>Manutenção de Equipamentos</t>
   </si>
@@ -341,6 +341,30 @@
   </si>
   <si>
     <t>Total Investido</t>
+  </si>
+  <si>
+    <t>Controle de Estoque</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Data da última compra</t>
+  </si>
+  <si>
+    <t>Quantidade Inicial</t>
+  </si>
+  <si>
+    <t>Quantidade Comprada</t>
+  </si>
+  <si>
+    <t>Quantidade Vendida</t>
+  </si>
+  <si>
+    <t>Quantidade Atual</t>
+  </si>
+  <si>
+    <t>Situação</t>
   </si>
 </sst>
 </file>
@@ -398,7 +422,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,6 +432,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,12 +476,9 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -479,18 +506,80 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -499,10 +588,10 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -512,6 +601,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1019,7 +1113,7 @@
     <tableColumn id="3" xr3:uid="{060D3661-46AF-4733-A5FA-310DAE872F3B}" name="Data"/>
     <tableColumn id="4" xr3:uid="{C7FD1F45-6591-4A70-B5D6-88A947871079}" name="Observação"/>
     <tableColumn id="5" xr3:uid="{C077D5F0-3B7B-4003-A04F-8FCDCB159E09}" name="Valor Intermediário"/>
-    <tableColumn id="6" xr3:uid="{87F99A74-457F-46C1-83C0-85FE250EB676}" name="Valor Final" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{87F99A74-457F-46C1-83C0-85FE250EB676}" name="Valor Final" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1032,18 +1126,18 @@
     <sortCondition descending="1" ref="B4:B26"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0EEB83A6-F4B9-435A-8D34-649252E5C12C}" name="Data" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{0EEB83A6-F4B9-435A-8D34-649252E5C12C}" name="Data" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{5A90F27E-71CD-4AFD-9169-04935483B7FC}" name="Fornecedor"/>
     <tableColumn id="3" xr3:uid="{1B71B8C7-9BCE-4D9E-905F-EDA0563E190C}" name="Mercadoria"/>
-    <tableColumn id="4" xr3:uid="{3F486BB6-4D35-41B1-9117-DF6E7C6D0529}" name="Medida" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{3F486BB6-4D35-41B1-9117-DF6E7C6D0529}" name="Medida" dataDxfId="13">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{72B0BF28-47FE-4E5D-A0BF-3A891C46063C}" name="Quantidade"/>
-    <tableColumn id="6" xr3:uid="{2A49550F-3530-4E59-BED2-151AC4FFB8D3}" name="Preço Unitário" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{2A49550F-3530-4E59-BED2-151AC4FFB8D3}" name="Preço Unitário" dataDxfId="12">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{99A9462F-2400-46FB-9851-646D7FFE5442}" name="Desconto" dataCellStyle="Porcentagem"/>
-    <tableColumn id="8" xr3:uid="{C45480F4-82CC-4B7B-BED7-A7F41DFD189F}" name="Valor Pago" dataDxfId="5">
+    <tableColumn id="8" xr3:uid="{C45480F4-82CC-4B7B-BED7-A7F41DFD189F}" name="Valor Pago" dataDxfId="11">
       <calculatedColumnFormula>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1056,11 +1150,35 @@
   <autoFilter ref="B5:E10" xr:uid="{487AEE34-60B2-4100-A9BD-BD0DF808678C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9B7EBAA0-64AD-4E77-9A2E-2E4538EACCC3}" name="Investimento"/>
-    <tableColumn id="2" xr3:uid="{8DFEE324-E65A-425F-94A2-66FF909D7C30}" name="Data" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{239BE80D-7805-4BBC-9C2D-C1DA9176F006}" name="Descrição" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{2870BF42-AA4B-45ED-882A-312D44EF0ADB}" name="Valor" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{8DFEE324-E65A-425F-94A2-66FF909D7C30}" name="Data" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{239BE80D-7805-4BBC-9C2D-C1DA9176F006}" name="Descrição" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{2870BF42-AA4B-45ED-882A-312D44EF0ADB}" name="Valor" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8AB07D7C-7269-4ADB-A46D-2F73513CEA69}" name="Tabela4" displayName="Tabela4" ref="B5:H29" totalsRowShown="0">
+  <autoFilter ref="B5:H29" xr:uid="{43996090-F30C-43D8-B342-21C0D20BB2FD}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{39158332-0439-4634-A356-C285BC1CE3AE}" name="Produto"/>
+    <tableColumn id="2" xr3:uid="{ABEAA5C0-16F7-4E1B-917F-C5C8BFD55C9A}" name="Data da última compra" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(INDEX(Tabela2[],MATCH(B6,Tabela2[Mercadoria],0),1),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{C81A6D67-961E-4493-8C24-EBAD0C4F2A48}" name="Quantidade Inicial"/>
+    <tableColumn id="4" xr3:uid="{80CA6ACE-4BB2-4EAD-A586-E6541DCF9474}" name="Quantidade Comprada" dataDxfId="7">
+      <calculatedColumnFormula>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{2535A214-2CD4-404B-A5DE-50CC6CD08CB7}" name="Quantidade Vendida"/>
+    <tableColumn id="6" xr3:uid="{1AD92F18-4970-4BF8-9E1A-44FD14A235E3}" name="Quantidade Atual" dataDxfId="6">
+      <calculatedColumnFormula>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D0D7FE62-656C-4A80-A7CD-44E952E7B569}" name="Situação" dataDxfId="5">
+      <calculatedColumnFormula>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1330,7 +1448,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:S33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1358,9 +1476,9 @@
     <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" s="3" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="1"/>
@@ -1406,8 +1524,8 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -1415,8 +1533,8 @@
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
         <f>SUM(F7:F11)</f>
         <v>17500</v>
       </c>
@@ -1425,37 +1543,37 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>10000</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>3000</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>2500</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
@@ -1464,17 +1582,17 @@
       <c r="E11" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>1500</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
         <v>900</v>
       </c>
     </row>
@@ -1482,8 +1600,8 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
         <v>6000</v>
       </c>
     </row>
@@ -1491,7 +1609,7 @@
       <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f>SUM(F15:F19)</f>
         <v>5300</v>
       </c>
@@ -1500,53 +1618,53 @@
       <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>800</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>3200</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>800</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
     </row>
@@ -1554,8 +1672,8 @@
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3">
         <f>SUM(F22:F27)</f>
         <v>11950</v>
       </c>
@@ -1564,62 +1682,62 @@
       <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>1650</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>3000</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>3000</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>2700</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>1500</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3">
         <v>1500</v>
       </c>
     </row>
@@ -1627,45 +1745,45 @@
       <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>957</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16">
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15">
         <f>SUM(Tabela1[Valor Final])</f>
         <v>45407</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13">
         <f>'Controle Mercadorias'!I28</f>
         <v>14057.59987</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19">
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18">
         <f>SUM(G31,G32)</f>
         <v>59464.599869999998</v>
       </c>
@@ -1694,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Y28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1710,14 +1828,14 @@
     <col min="9" max="9" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" s="3" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" s="2" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1767,7 +1885,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>42190</v>
       </c>
       <c r="C5" t="s">
@@ -1783,18 +1901,18 @@
       <c r="F5">
         <v>50</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>2.3660000000000001</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="4">
+      <c r="H5" s="6"/>
+      <c r="I5" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>118.30000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>42190</v>
       </c>
       <c r="C6" t="s">
@@ -1810,18 +1928,18 @@
       <c r="F6">
         <v>120</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>4.0659999999999998</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="4">
+      <c r="H6" s="6"/>
+      <c r="I6" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>487.91999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>42189</v>
       </c>
       <c r="C7" t="s">
@@ -1837,18 +1955,18 @@
       <c r="F7">
         <v>150</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>4.0659999999999998</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="4">
+      <c r="H7" s="6"/>
+      <c r="I7" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>609.9</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>42189</v>
       </c>
       <c r="C8" t="s">
@@ -1864,20 +1982,20 @@
       <c r="F8">
         <v>150</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>2.3406000000000002</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>0.03</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>340.5573</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>42189</v>
       </c>
       <c r="C9" t="s">
@@ -1893,18 +2011,18 @@
       <c r="F9">
         <v>100</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>2.1023999999999998</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="4">
+      <c r="H9" s="6"/>
+      <c r="I9" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>210.23999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>42189</v>
       </c>
       <c r="C10" t="s">
@@ -1920,18 +2038,18 @@
       <c r="F10">
         <v>200</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>3.2084999999999999</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="4">
+      <c r="H10" s="6"/>
+      <c r="I10" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>641.69999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>42188</v>
       </c>
       <c r="C11" t="s">
@@ -1947,18 +2065,18 @@
       <c r="F11">
         <v>100</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>6.3449999999999998</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="4">
+      <c r="H11" s="6"/>
+      <c r="I11" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>634.5</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>42188</v>
       </c>
       <c r="C12" t="s">
@@ -1974,18 +2092,18 @@
       <c r="F12">
         <v>100</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>4.5409000000000006</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="4">
+      <c r="H12" s="6"/>
+      <c r="I12" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>454.09000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>42188</v>
       </c>
       <c r="C13" t="s">
@@ -2001,20 +2119,20 @@
       <c r="F13">
         <v>300</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>4.0659999999999998</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>0.02</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>1195.404</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>42188</v>
       </c>
       <c r="C14" t="s">
@@ -2030,18 +2148,18 @@
       <c r="F14">
         <v>50</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>1.0580000000000001</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="4">
+      <c r="H14" s="6"/>
+      <c r="I14" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>52.900000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>42188</v>
       </c>
       <c r="C15" t="s">
@@ -2057,18 +2175,18 @@
       <c r="F15">
         <v>300</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>2.6299000000000001</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="4">
+      <c r="H15" s="6"/>
+      <c r="I15" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>788.97</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>42188</v>
       </c>
       <c r="C16" t="s">
@@ -2084,18 +2202,18 @@
       <c r="F16">
         <v>100</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>1.8506999999999998</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="4">
+      <c r="H16" s="6"/>
+      <c r="I16" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>185.07</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>42188</v>
       </c>
       <c r="C17" t="s">
@@ -2111,20 +2229,20 @@
       <c r="F17">
         <v>100</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>2.1023999999999998</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>0.06</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>197.62559999999996</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>42188</v>
       </c>
       <c r="C18" t="s">
@@ -2140,20 +2258,20 @@
       <c r="F18">
         <v>110</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>6.4216000000000006</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>0.03</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>685.18472000000008</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>42188</v>
       </c>
       <c r="C19" t="s">
@@ -2169,18 +2287,18 @@
       <c r="F19">
         <v>50</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>22.226999999999997</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="4">
+      <c r="H19" s="6"/>
+      <c r="I19" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>1111.3499999999999</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>42187</v>
       </c>
       <c r="C20" t="s">
@@ -2196,18 +2314,18 @@
       <c r="F20">
         <v>300</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>2.3406000000000002</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="4">
+      <c r="H20" s="6"/>
+      <c r="I20" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>702.18000000000006</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>42187</v>
       </c>
       <c r="C21" t="s">
@@ -2223,18 +2341,18 @@
       <c r="F21">
         <v>150</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>2.8405</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="4">
+      <c r="H21" s="6"/>
+      <c r="I21" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>426.07499999999999</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>42187</v>
       </c>
       <c r="C22" t="s">
@@ -2250,20 +2368,20 @@
       <c r="F22">
         <v>150</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>3.6309000000000005</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>0.05</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>517.40325000000007</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>42187</v>
       </c>
       <c r="C23" t="s">
@@ -2279,18 +2397,18 @@
       <c r="F23">
         <v>150</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>14.469000000000001</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="4">
+      <c r="H23" s="6"/>
+      <c r="I23" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>2170.3500000000004</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>42187</v>
       </c>
       <c r="C24" t="s">
@@ -2306,18 +2424,18 @@
       <c r="F24">
         <v>100</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>2.1023999999999998</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="4">
+      <c r="H24" s="6"/>
+      <c r="I24" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>210.23999999999998</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>42187</v>
       </c>
       <c r="C25" t="s">
@@ -2333,18 +2451,18 @@
       <c r="F25">
         <v>80</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>26.012999999999998</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="4">
+      <c r="H25" s="6"/>
+      <c r="I25" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>2081.04</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>42187</v>
       </c>
       <c r="C26" t="s">
@@ -2360,33 +2478,33 @@
       <c r="F26">
         <v>100</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</f>
         <v>2.3660000000000001</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="4">
+      <c r="H26" s="6"/>
+      <c r="I26" s="3">
         <f>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</f>
         <v>236.60000000000002</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="4"/>
+      <c r="B27" s="7"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13">
         <f>SUM(Tabela2[Valor Pago])</f>
         <v>14057.59987</v>
       </c>
@@ -2421,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:Y12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2433,14 +2551,14 @@
     <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" s="3" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" s="2" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2481,13 +2599,13 @@
       <c r="B6" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>42129</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>400000</v>
       </c>
     </row>
@@ -2495,9 +2613,9 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="4">
+      <c r="C7" s="7"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2505,9 +2623,9 @@
       <c r="B8" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="4">
+      <c r="C8" s="7"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2515,9 +2633,9 @@
       <c r="B9" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="4">
+      <c r="C9" s="7"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2525,19 +2643,19 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="4">
+      <c r="C10" s="7"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="21" x14ac:dyDescent="0.4">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13">
         <f>SUM(Tabela3[Valor])</f>
         <v>400000</v>
       </c>
@@ -2564,13 +2682,642 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" s="19" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B6,Tabela2[Mercadoria],0),1),"")</f>
+        <v>42187</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>150</v>
+      </c>
+      <c r="G6">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>165</v>
+      </c>
+      <c r="H6" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B7,Tabela2[Mercadoria],0),1),"")</f>
+        <v>42188</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>60</v>
+      </c>
+      <c r="H7" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B8,Tabela2[Mercadoria],0),1),"")</f>
+        <v>42189</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>450</v>
+      </c>
+      <c r="G8">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>450</v>
+      </c>
+      <c r="H8" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="7">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B9,Tabela2[Mercadoria],0),1),"")</f>
+        <v>42188</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>100</v>
+      </c>
+      <c r="H9" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="7" t="str">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B10,Tabela2[Mercadoria],0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>150</v>
+      </c>
+      <c r="H10" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B11,Tabela2[Mercadoria],0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>15</v>
+      </c>
+      <c r="H11" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>Comprar</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="7">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B12,Tabela2[Mercadoria],0),1),"")</f>
+        <v>42187</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>150</v>
+      </c>
+      <c r="G12">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>175</v>
+      </c>
+      <c r="H12" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B13,Tabela2[Mercadoria],0),1),"")</f>
+        <v>42187</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>150</v>
+      </c>
+      <c r="G13">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>150</v>
+      </c>
+      <c r="H13" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="7">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B14,Tabela2[Mercadoria],0),1),"")</f>
+        <v>42189</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>300</v>
+      </c>
+      <c r="G14">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>300</v>
+      </c>
+      <c r="H14" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="7">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B15,Tabela2[Mercadoria],0),1),"")</f>
+        <v>42188</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>130</v>
+      </c>
+      <c r="H15" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="7">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B16,Tabela2[Mercadoria],0),1),"")</f>
+        <v>42188</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>100</v>
+      </c>
+      <c r="H16" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="7">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B17,Tabela2[Mercadoria],0),1),"")</f>
+        <v>42190</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>150</v>
+      </c>
+      <c r="G17">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>150</v>
+      </c>
+      <c r="H17" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B18,Tabela2[Mercadoria],0),1),"")</f>
+        <v>42190</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>570</v>
+      </c>
+      <c r="G18">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>570</v>
+      </c>
+      <c r="H18" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B19,Tabela2[Mercadoria],0),1),"")</f>
+        <v>42188</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>110</v>
+      </c>
+      <c r="G19">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>110</v>
+      </c>
+      <c r="H19" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="7" t="str">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B20,Tabela2[Mercadoria],0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D20">
+        <v>39</v>
+      </c>
+      <c r="E20">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>39</v>
+      </c>
+      <c r="H20" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>Atenção</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="7">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B21,Tabela2[Mercadoria],0),1),"")</f>
+        <v>42188</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>300</v>
+      </c>
+      <c r="G21">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>300</v>
+      </c>
+      <c r="H21" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="7">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B22,Tabela2[Mercadoria],0),1),"")</f>
+        <v>42188</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>50</v>
+      </c>
+      <c r="H22" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7" t="str">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B23,Tabela2[Mercadoria],0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>10</v>
+      </c>
+      <c r="H23" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>Comprar</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="7" t="str">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B24,Tabela2[Mercadoria],0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>100</v>
+      </c>
+      <c r="H24" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="7">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B25,Tabela2[Mercadoria],0),1),"")</f>
+        <v>42189</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>200</v>
+      </c>
+      <c r="G25">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>200</v>
+      </c>
+      <c r="H25" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="7" t="str">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B26,Tabela2[Mercadoria],0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>30</v>
+      </c>
+      <c r="H26" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>Atenção</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="7" t="str">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B27,Tabela2[Mercadoria],0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>50</v>
+      </c>
+      <c r="H27" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="7">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B28,Tabela2[Mercadoria],0),1),"")</f>
+        <v>42187</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>80</v>
+      </c>
+      <c r="G28">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>80</v>
+      </c>
+      <c r="H28" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="7" t="str">
+        <f>IFERROR(INDEX(Tabela2[],MATCH(B29,Tabela2[Mercadoria],0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <f>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</f>
+        <v>20</v>
+      </c>
+      <c r="H29" t="str">
+        <f>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</f>
+        <v>Comprar</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H6:H29">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Comprar">
+      <formula>NOT(ISERROR(SEARCH("Comprar",H6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Atenção">
+      <formula>NOT(ISERROR(SEARCH("Atenção",H6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2634,8 +3381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="M6:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2647,16 +3394,16 @@
   </cols>
   <sheetData>
     <row r="6" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2664,10 +3411,10 @@
       <c r="M7" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <v>2.8405</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="9">
         <v>2.99</v>
       </c>
       <c r="P7" t="s">
@@ -2678,10 +3425,10 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="9">
         <v>1.0580000000000001</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="9">
         <v>1.1499999999999999</v>
       </c>
       <c r="P8" t="s">
@@ -2692,10 +3439,10 @@
       <c r="M9" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <v>2.3406000000000002</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <v>2.4900000000000002</v>
       </c>
       <c r="P9" t="s">
@@ -2706,10 +3453,10 @@
       <c r="M10" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
         <v>1.8506999999999998</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="9">
         <v>1.99</v>
       </c>
       <c r="P10" t="s">
@@ -2720,10 +3467,10 @@
       <c r="M11" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="9">
         <v>1.0924999999999998</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="9">
         <v>1.1499999999999999</v>
       </c>
       <c r="P11" t="s">
@@ -2734,10 +3481,10 @@
       <c r="M12" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="9">
         <v>0.74260000000000004</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="9">
         <v>0.79</v>
       </c>
       <c r="P12" t="s">
@@ -2748,10 +3495,10 @@
       <c r="M13" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="9">
         <v>14.469000000000001</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="9">
         <v>15.9</v>
       </c>
       <c r="P13" t="s">
@@ -2762,10 +3509,10 @@
       <c r="M14" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="9">
         <v>3.6309000000000005</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="9">
         <v>3.99</v>
       </c>
       <c r="P14" t="s">
@@ -2776,10 +3523,10 @@
       <c r="M15" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="9">
         <v>2.1023999999999998</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="9">
         <v>2.19</v>
       </c>
       <c r="P15" t="s">
@@ -2790,10 +3537,10 @@
       <c r="M16" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="9">
         <v>4.5409000000000006</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="9">
         <v>4.99</v>
       </c>
       <c r="P16" t="s">
@@ -2804,10 +3551,10 @@
       <c r="M17" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="9">
         <v>6.3449999999999998</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="9">
         <v>6.75</v>
       </c>
       <c r="P17" t="s">
@@ -2818,10 +3565,10 @@
       <c r="M18" t="s">
         <v>36</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="9">
         <v>2.3660000000000001</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="9">
         <v>2.6</v>
       </c>
       <c r="P18" t="s">
@@ -2832,10 +3579,10 @@
       <c r="M19" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="9">
         <v>4.0659999999999998</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="9">
         <v>4.28</v>
       </c>
       <c r="P19" t="s">
@@ -2846,10 +3593,10 @@
       <c r="M20" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="9">
         <v>6.4216000000000006</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="9">
         <v>6.98</v>
       </c>
       <c r="P20" t="s">
@@ -2860,10 +3607,10 @@
       <c r="M21" t="s">
         <v>71</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="9">
         <v>1.3708</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="9">
         <v>1.49</v>
       </c>
       <c r="P21" t="s">
@@ -2874,10 +3621,10 @@
       <c r="M22" t="s">
         <v>76</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="9">
         <v>2.6299000000000001</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="9">
         <v>2.89</v>
       </c>
       <c r="P22" t="s">
@@ -2888,10 +3635,10 @@
       <c r="M23" t="s">
         <v>27</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="9">
         <v>22.226999999999997</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="9">
         <v>23.9</v>
       </c>
       <c r="P23" t="s">
@@ -2902,10 +3649,10 @@
       <c r="M24" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="9">
         <v>23.827999999999999</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O24" s="9">
         <v>25.9</v>
       </c>
       <c r="P24" t="s">
@@ -2916,10 +3663,10 @@
       <c r="M25" t="s">
         <v>77</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="9">
         <v>2.1749000000000001</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="9">
         <v>2.39</v>
       </c>
       <c r="P25" t="s">
@@ -2930,10 +3677,10 @@
       <c r="M26" t="s">
         <v>30</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="9">
         <v>3.2084999999999999</v>
       </c>
-      <c r="O26" s="10">
+      <c r="O26" s="9">
         <v>3.45</v>
       </c>
       <c r="P26" t="s">
@@ -2944,10 +3691,10 @@
       <c r="M27" t="s">
         <v>23</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="9">
         <v>5.3544000000000009</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="9">
         <v>5.82</v>
       </c>
       <c r="P27" t="s">
@@ -2958,10 +3705,10 @@
       <c r="M28" t="s">
         <v>32</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="9">
         <v>9.1009999999999991</v>
       </c>
-      <c r="O28" s="10">
+      <c r="O28" s="9">
         <v>9.58</v>
       </c>
       <c r="P28" t="s">
@@ -2972,10 +3719,10 @@
       <c r="M29" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="9">
         <v>26.012999999999998</v>
       </c>
-      <c r="O29" s="10">
+      <c r="O29" s="9">
         <v>29.9</v>
       </c>
       <c r="P29" t="s">
@@ -2986,10 +3733,10 @@
       <c r="M30" t="s">
         <v>35</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="9">
         <v>46.664999999999999</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="9">
         <v>54.9</v>
       </c>
       <c r="P30" t="s">

--- a/Controle Mercado.xlsx
+++ b/Controle Mercado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Karen\Excel\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB009D57-E479-47ED-B716-4D32C17E7040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3098E72D-7C04-4993-A029-511EBEEAD429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -522,20 +522,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -554,26 +552,6 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -1113,7 +1091,7 @@
     <tableColumn id="3" xr3:uid="{060D3661-46AF-4733-A5FA-310DAE872F3B}" name="Data"/>
     <tableColumn id="4" xr3:uid="{C7FD1F45-6591-4A70-B5D6-88A947871079}" name="Observação"/>
     <tableColumn id="5" xr3:uid="{C077D5F0-3B7B-4003-A04F-8FCDCB159E09}" name="Valor Intermediário"/>
-    <tableColumn id="6" xr3:uid="{87F99A74-457F-46C1-83C0-85FE250EB676}" name="Valor Final" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{87F99A74-457F-46C1-83C0-85FE250EB676}" name="Valor Final" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1126,18 +1104,18 @@
     <sortCondition descending="1" ref="B4:B26"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0EEB83A6-F4B9-435A-8D34-649252E5C12C}" name="Data" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{0EEB83A6-F4B9-435A-8D34-649252E5C12C}" name="Data" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5A90F27E-71CD-4AFD-9169-04935483B7FC}" name="Fornecedor"/>
     <tableColumn id="3" xr3:uid="{1B71B8C7-9BCE-4D9E-905F-EDA0563E190C}" name="Mercadoria"/>
-    <tableColumn id="4" xr3:uid="{3F486BB6-4D35-41B1-9117-DF6E7C6D0529}" name="Medida" dataDxfId="13">
+    <tableColumn id="4" xr3:uid="{3F486BB6-4D35-41B1-9117-DF6E7C6D0529}" name="Medida" dataDxfId="11">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{72B0BF28-47FE-4E5D-A0BF-3A891C46063C}" name="Quantidade"/>
-    <tableColumn id="6" xr3:uid="{2A49550F-3530-4E59-BED2-151AC4FFB8D3}" name="Preço Unitário" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{2A49550F-3530-4E59-BED2-151AC4FFB8D3}" name="Preço Unitário" dataDxfId="10">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{99A9462F-2400-46FB-9851-646D7FFE5442}" name="Desconto" dataCellStyle="Porcentagem"/>
-    <tableColumn id="8" xr3:uid="{C45480F4-82CC-4B7B-BED7-A7F41DFD189F}" name="Valor Pago" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{C45480F4-82CC-4B7B-BED7-A7F41DFD189F}" name="Valor Pago" dataDxfId="9">
       <calculatedColumnFormula>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1150,9 +1128,9 @@
   <autoFilter ref="B5:E10" xr:uid="{487AEE34-60B2-4100-A9BD-BD0DF808678C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9B7EBAA0-64AD-4E77-9A2E-2E4538EACCC3}" name="Investimento"/>
-    <tableColumn id="2" xr3:uid="{8DFEE324-E65A-425F-94A2-66FF909D7C30}" name="Data" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{239BE80D-7805-4BBC-9C2D-C1DA9176F006}" name="Descrição" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{2870BF42-AA4B-45ED-882A-312D44EF0ADB}" name="Valor" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{8DFEE324-E65A-425F-94A2-66FF909D7C30}" name="Data" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{239BE80D-7805-4BBC-9C2D-C1DA9176F006}" name="Descrição" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2870BF42-AA4B-45ED-882A-312D44EF0ADB}" name="Valor" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1163,18 +1141,18 @@
   <autoFilter ref="B5:H29" xr:uid="{43996090-F30C-43D8-B342-21C0D20BB2FD}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{39158332-0439-4634-A356-C285BC1CE3AE}" name="Produto"/>
-    <tableColumn id="2" xr3:uid="{ABEAA5C0-16F7-4E1B-917F-C5C8BFD55C9A}" name="Data da última compra" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{ABEAA5C0-16F7-4E1B-917F-C5C8BFD55C9A}" name="Data da última compra" dataDxfId="3">
       <calculatedColumnFormula>IFERROR(INDEX(Tabela2[],MATCH(B6,Tabela2[Mercadoria],0),1),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{C81A6D67-961E-4493-8C24-EBAD0C4F2A48}" name="Quantidade Inicial"/>
-    <tableColumn id="4" xr3:uid="{80CA6ACE-4BB2-4EAD-A586-E6541DCF9474}" name="Quantidade Comprada" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{80CA6ACE-4BB2-4EAD-A586-E6541DCF9474}" name="Quantidade Comprada" dataDxfId="2">
       <calculatedColumnFormula>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{2535A214-2CD4-404B-A5DE-50CC6CD08CB7}" name="Quantidade Vendida"/>
-    <tableColumn id="6" xr3:uid="{1AD92F18-4970-4BF8-9E1A-44FD14A235E3}" name="Quantidade Atual" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{1AD92F18-4970-4BF8-9E1A-44FD14A235E3}" name="Quantidade Atual" dataDxfId="1">
       <calculatedColumnFormula>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D0D7FE62-656C-4A80-A7CD-44E952E7B569}" name="Situação" dataDxfId="5">
+    <tableColumn id="7" xr3:uid="{D0D7FE62-656C-4A80-A7CD-44E952E7B569}" name="Situação" dataDxfId="0">
       <calculatedColumnFormula>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1447,7 +1425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
@@ -2684,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3307,10 +3285,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H6:H29">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Comprar">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Comprar">
       <formula>NOT(ISERROR(SEARCH("Comprar",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Atenção">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Atenção">
       <formula>NOT(ISERROR(SEARCH("Atenção",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3381,8 +3359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="M6:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:M30"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Controle Mercado.xlsx
+++ b/Controle Mercado.xlsx
@@ -8,22 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Karen\Excel\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3098E72D-7C04-4993-A029-511EBEEAD429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1330E5-C19D-462A-88BC-C73C07F04843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
     <sheet name="Despesas" sheetId="2" r:id="rId2"/>
-    <sheet name="Controle Mercadorias" sheetId="6" r:id="rId3"/>
+    <sheet name="Compras Mercadorias" sheetId="6" r:id="rId3"/>
     <sheet name="Investimentos" sheetId="7" r:id="rId4"/>
     <sheet name="Controle de Estoque" sheetId="8" r:id="rId5"/>
     <sheet name="Resultados" sheetId="4" r:id="rId6"/>
     <sheet name="Vendas" sheetId="3" r:id="rId7"/>
-    <sheet name="cálculos" sheetId="5" r:id="rId8"/>
+    <sheet name="Semana 1" sheetId="9" r:id="rId8"/>
+    <sheet name="Semana 2" sheetId="10" r:id="rId9"/>
+    <sheet name="Semana 3" sheetId="11" r:id="rId10"/>
+    <sheet name="Semana 4" sheetId="12" r:id="rId11"/>
+    <sheet name="Semana 5" sheetId="13" r:id="rId12"/>
+    <sheet name="cálculos" sheetId="5" r:id="rId13"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId14"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">cálculos!$M$6:$P$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">cálculos!$M$6:$P$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="128">
   <si>
     <t>Manutenção de Equipamentos</t>
   </si>
@@ -365,6 +373,66 @@
   </si>
   <si>
     <t>Situação</t>
+  </si>
+  <si>
+    <t>Vendas Semana 1</t>
+  </si>
+  <si>
+    <t>Id da Venda</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Entrega</t>
+  </si>
+  <si>
+    <t>Valor de Entrega</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total para o Cliente</t>
+  </si>
+  <si>
+    <t>Regiões de Entrega</t>
+  </si>
+  <si>
+    <t>Preço de Entrega</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Loja</t>
+  </si>
+  <si>
+    <t>Zona Norte</t>
+  </si>
+  <si>
+    <t>Zona Oeste</t>
+  </si>
+  <si>
+    <t>Zona Sul</t>
+  </si>
+  <si>
+    <t>Receita de Vendas na Semana</t>
+  </si>
+  <si>
+    <t>Receita de Entregas</t>
+  </si>
+  <si>
+    <t>Vendas Semana 2</t>
+  </si>
+  <si>
+    <t>Vendas Semana 3</t>
+  </si>
+  <si>
+    <t>Vendas Semana 4</t>
+  </si>
+  <si>
+    <t>Vendas Semana 5</t>
   </si>
 </sst>
 </file>
@@ -374,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,8 +489,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,8 +524,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -470,13 +559,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -516,13 +634,153 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="45">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -534,24 +792,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -1082,6 +1322,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Menu"/>
+      <sheetName val="Despesas"/>
+      <sheetName val="Compras Mercadorias"/>
+      <sheetName val="Controle de Estoque"/>
+      <sheetName val="Investimentos"/>
+      <sheetName val="Resultados"/>
+      <sheetName val="Vendas"/>
+      <sheetName val="Sem1"/>
+      <sheetName val="Análise Sem1"/>
+      <sheetName val="Sem2"/>
+      <sheetName val="Análise Sem2"/>
+      <sheetName val="Sem3"/>
+      <sheetName val="Sem4"/>
+      <sheetName val="Sem5"/>
+      <sheetName val="cálculos"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7F8239A-6B19-4C4D-A13C-A3CDE664781D}" name="Tabela1" displayName="Tabela1" ref="B4:G29" totalsRowShown="0">
   <autoFilter ref="B4:G29" xr:uid="{B8BA4C6E-FE8B-4545-87A2-5D8F28B96CDB}"/>
@@ -1091,7 +1372,7 @@
     <tableColumn id="3" xr3:uid="{060D3661-46AF-4733-A5FA-310DAE872F3B}" name="Data"/>
     <tableColumn id="4" xr3:uid="{C7FD1F45-6591-4A70-B5D6-88A947871079}" name="Observação"/>
     <tableColumn id="5" xr3:uid="{C077D5F0-3B7B-4003-A04F-8FCDCB159E09}" name="Valor Intermediário"/>
-    <tableColumn id="6" xr3:uid="{87F99A74-457F-46C1-83C0-85FE250EB676}" name="Valor Final" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{87F99A74-457F-46C1-83C0-85FE250EB676}" name="Valor Final" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1104,18 +1385,18 @@
     <sortCondition descending="1" ref="B4:B26"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0EEB83A6-F4B9-435A-8D34-649252E5C12C}" name="Data" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{0EEB83A6-F4B9-435A-8D34-649252E5C12C}" name="Data" dataDxfId="43"/>
     <tableColumn id="2" xr3:uid="{5A90F27E-71CD-4AFD-9169-04935483B7FC}" name="Fornecedor"/>
     <tableColumn id="3" xr3:uid="{1B71B8C7-9BCE-4D9E-905F-EDA0563E190C}" name="Mercadoria"/>
-    <tableColumn id="4" xr3:uid="{3F486BB6-4D35-41B1-9117-DF6E7C6D0529}" name="Medida" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{3F486BB6-4D35-41B1-9117-DF6E7C6D0529}" name="Medida" dataDxfId="42">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{72B0BF28-47FE-4E5D-A0BF-3A891C46063C}" name="Quantidade"/>
-    <tableColumn id="6" xr3:uid="{2A49550F-3530-4E59-BED2-151AC4FFB8D3}" name="Preço Unitário" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{2A49550F-3530-4E59-BED2-151AC4FFB8D3}" name="Preço Unitário" dataDxfId="41">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{99A9462F-2400-46FB-9851-646D7FFE5442}" name="Desconto" dataCellStyle="Porcentagem"/>
-    <tableColumn id="8" xr3:uid="{C45480F4-82CC-4B7B-BED7-A7F41DFD189F}" name="Valor Pago" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{C45480F4-82CC-4B7B-BED7-A7F41DFD189F}" name="Valor Pago" dataDxfId="40">
       <calculatedColumnFormula>Tabela2[[#This Row],[Quantidade]]*Tabela2[[#This Row],[Preço Unitário]]*(1-Tabela2[[#This Row],[Desconto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1128,9 +1409,9 @@
   <autoFilter ref="B5:E10" xr:uid="{487AEE34-60B2-4100-A9BD-BD0DF808678C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9B7EBAA0-64AD-4E77-9A2E-2E4538EACCC3}" name="Investimento"/>
-    <tableColumn id="2" xr3:uid="{8DFEE324-E65A-425F-94A2-66FF909D7C30}" name="Data" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{239BE80D-7805-4BBC-9C2D-C1DA9176F006}" name="Descrição" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{2870BF42-AA4B-45ED-882A-312D44EF0ADB}" name="Valor" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{8DFEE324-E65A-425F-94A2-66FF909D7C30}" name="Data" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{239BE80D-7805-4BBC-9C2D-C1DA9176F006}" name="Descrição" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{2870BF42-AA4B-45ED-882A-312D44EF0ADB}" name="Valor" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1141,22 +1422,190 @@
   <autoFilter ref="B5:H29" xr:uid="{43996090-F30C-43D8-B342-21C0D20BB2FD}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{39158332-0439-4634-A356-C285BC1CE3AE}" name="Produto"/>
-    <tableColumn id="2" xr3:uid="{ABEAA5C0-16F7-4E1B-917F-C5C8BFD55C9A}" name="Data da última compra" dataDxfId="3">
+    <tableColumn id="2" xr3:uid="{ABEAA5C0-16F7-4E1B-917F-C5C8BFD55C9A}" name="Data da última compra" dataDxfId="36">
       <calculatedColumnFormula>IFERROR(INDEX(Tabela2[],MATCH(B6,Tabela2[Mercadoria],0),1),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{C81A6D67-961E-4493-8C24-EBAD0C4F2A48}" name="Quantidade Inicial"/>
-    <tableColumn id="4" xr3:uid="{80CA6ACE-4BB2-4EAD-A586-E6541DCF9474}" name="Quantidade Comprada" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{80CA6ACE-4BB2-4EAD-A586-E6541DCF9474}" name="Quantidade Comprada" dataDxfId="35">
       <calculatedColumnFormula>SUMIF(Tabela2[Mercadoria],Tabela4[[#This Row],[Produto]],Tabela2[Quantidade])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{2535A214-2CD4-404B-A5DE-50CC6CD08CB7}" name="Quantidade Vendida"/>
-    <tableColumn id="6" xr3:uid="{1AD92F18-4970-4BF8-9E1A-44FD14A235E3}" name="Quantidade Atual" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{1AD92F18-4970-4BF8-9E1A-44FD14A235E3}" name="Quantidade Atual" dataDxfId="34">
       <calculatedColumnFormula>Tabela4[[#This Row],[Quantidade Inicial]]+Tabela4[[#This Row],[Quantidade Comprada]]-Tabela4[[#This Row],[Quantidade Vendida]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D0D7FE62-656C-4A80-A7CD-44E952E7B569}" name="Situação" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{D0D7FE62-656C-4A80-A7CD-44E952E7B569}" name="Situação" dataDxfId="33">
       <calculatedColumnFormula>IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;50,IF(Tabela4[[#This Row],[Quantidade Atual]]&lt;21,"Comprar","Atenção"),"OK")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EE6424D3-48C0-48F8-B901-4A8615125E86}" name="Tabela5" displayName="Tabela5" ref="B4:M29" totalsRowShown="0">
+  <autoFilter ref="B4:M29" xr:uid="{B50BFCED-FC59-453B-8B7C-F57FDEA11B36}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:M29">
+    <sortCondition descending="1" ref="B4:B29"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{F276C9DD-59EC-41C0-BFAC-41E0A3A571C2}" name="Id da Venda"/>
+    <tableColumn id="2" xr3:uid="{3529F82E-B4A1-48C9-9A2E-330F4411134E}" name="Data" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2B56FFC1-C17B-4DEF-827B-9C7EC45BD06E}" name="Produto"/>
+    <tableColumn id="4" xr3:uid="{EE0D7D70-F609-446A-B897-48419548EFFF}" name="Medida" dataDxfId="32">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{ECD320CD-0C19-481C-AC06-2DF8EC8F82C8}" name="Quantidade"/>
+    <tableColumn id="6" xr3:uid="{A4672970-7224-4ED5-BDAB-2C7E72C2B5F6}" name="Preço Unitário" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{88382475-B4D6-4765-B6AE-CC313E146A53}" name="Subtotal" dataDxfId="1">
+      <calculatedColumnFormula>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{8B8EC2C3-549F-49CD-A604-107200146A94}" name="Desconto"/>
+    <tableColumn id="9" xr3:uid="{46D927CD-3071-4D04-8D49-1EA3FD2ECC74}" name="Entrega"/>
+    <tableColumn id="10" xr3:uid="{48B3E9CB-5AB9-46A7-9A54-542CE53A4B9E}" name="Valor de Entrega" dataDxfId="5">
+      <calculatedColumnFormula>IF(Tabela5[[#This Row],[Id da Venda]]=B6,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{99652A64-363A-4AC6-B1F1-CA3A5A4034D6}" name="Total" dataDxfId="31" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{6B592051-6175-4221-97FA-655EC0C06504}" name="Total para o Cliente" dataDxfId="30" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela5[[#This Row],[Id da Venda]]=B6,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB0B7C4F-7AC1-4174-BF5E-C9A3363D892F}" name="Tabela57" displayName="Tabela57" ref="B4:M18" totalsRowShown="0">
+  <autoFilter ref="B4:M18" xr:uid="{F86BA69B-3CD2-42B4-AC3F-96638BE8E5C4}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{2C4AE0FF-C596-4D14-8423-F3244BD268CC}" name="Id da Venda"/>
+    <tableColumn id="2" xr3:uid="{C476D0D7-08DD-4048-AEBD-F9721DD466B2}" name="Data"/>
+    <tableColumn id="3" xr3:uid="{825084DE-5629-4618-B846-6DC4FC002F06}" name="Produto"/>
+    <tableColumn id="4" xr3:uid="{57D26F82-C1ED-49EE-9B67-8210E04B0BF1}" name="Medida" dataDxfId="2">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B830440C-A533-4606-A26A-F3905C47119F}" name="Quantidade"/>
+    <tableColumn id="6" xr3:uid="{51247FC8-4677-4C6C-BE89-E91C64D8F500}" name="Preço Unitário" dataDxfId="29">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D3AF7287-3CC6-4B88-98EE-2F7F2F27F6F4}" name="Subtotal" dataDxfId="28">
+      <calculatedColumnFormula>Tabela57[[#This Row],[Quantidade]]*Tabela57[[#This Row],[Preço Unitário]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{E0953CBC-F483-454B-99B0-004F4EE4430B}" name="Desconto"/>
+    <tableColumn id="9" xr3:uid="{437D2BDF-6981-4CA2-A7E8-0237A5CC523F}" name="Entrega"/>
+    <tableColumn id="10" xr3:uid="{B60EEEF5-5A20-4921-A88E-1B41ED536B36}" name="Valor de Entrega" dataDxfId="27">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela57[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{51FD6AC1-FF5F-4DB7-9636-BC9EE0CA7CB4}" name="Total" dataDxfId="26" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela57[[#This Row],[Subtotal]]*(1-Tabela57[[#This Row],[Desconto]])+Tabela57[[#This Row],[Valor de Entrega]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{BD2AF258-48CF-4D82-8ECD-208E70DE80C6}" name="Total para o Cliente" dataDxfId="25" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela57[[#This Row],[Id da Venda]]=B6,"",SUMIF(Tabela57[Id da Venda],Tabela57[[#This Row],[Id da Venda]],Tabela57[Total]))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BDFFD4BF-DEC8-4919-9768-314AB472FA38}" name="Tabela579" displayName="Tabela579" ref="B4:M18" totalsRowShown="0">
+  <autoFilter ref="B4:M18" xr:uid="{0E460EF7-3A59-4D67-AD0A-01726A1EBF93}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{B4BC53A0-7378-4377-BE14-03A712A411B1}" name="Id da Venda"/>
+    <tableColumn id="2" xr3:uid="{D797BDB1-66EA-484A-8E2C-20E87BDD996C}" name="Data"/>
+    <tableColumn id="3" xr3:uid="{C4B3F03E-C755-40D5-96C5-6B5FBF77B673}" name="Produto"/>
+    <tableColumn id="4" xr3:uid="{DCE05453-0EB3-42A7-ACC4-242B68C24C54}" name="Medida" dataDxfId="24">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4A95D4C6-EFF6-4E4D-81BF-DD3980903078}" name="Quantidade"/>
+    <tableColumn id="6" xr3:uid="{D5B98FBE-05E2-4958-989C-2126373F4E39}" name="Preço Unitário" dataDxfId="23">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{1BCECE7F-B835-4008-9B5A-09B7244572FB}" name="Subtotal" dataDxfId="22">
+      <calculatedColumnFormula>Tabela579[[#This Row],[Quantidade]]*Tabela579[[#This Row],[Preço Unitário]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{2DD77BE8-D137-4A5A-84D8-97D95CF9E837}" name="Desconto"/>
+    <tableColumn id="9" xr3:uid="{55191C68-5370-49F2-9D72-98C5B24D7EFC}" name="Entrega"/>
+    <tableColumn id="10" xr3:uid="{D41D8B72-5882-42DE-9FA6-E9558A5F7C94}" name="Valor de Entrega" dataDxfId="21">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela579[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{D3D9C423-E79C-4BC8-8090-0470F4D1A8F2}" name="Total" dataDxfId="20" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela579[[#This Row],[Subtotal]]*(1-Tabela579[[#This Row],[Desconto]])+Tabela579[[#This Row],[Valor de Entrega]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{704D5592-7153-45E1-AF9F-7ECEBB85180B}" name="Total para o Cliente" dataDxfId="19" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela579[[#This Row],[Id da Venda]]=B6,"",SUMIF(Tabela579[Id da Venda],Tabela579[[#This Row],[Id da Venda]],Tabela579[Total]))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3BADB4D8-8F72-40FF-8638-5B636C6F1190}" name="Tabela5710" displayName="Tabela5710" ref="B4:M18" totalsRowShown="0">
+  <autoFilter ref="B4:M18" xr:uid="{786B6B72-672E-492D-A55A-E8C86D347186}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{3CE324D0-A6A8-4C54-A0F4-EB1CED1E842E}" name="Id da Venda"/>
+    <tableColumn id="2" xr3:uid="{9B021535-FE6E-4B01-97AE-CC4E4B246268}" name="Data"/>
+    <tableColumn id="3" xr3:uid="{700F5C03-4629-422F-BCFF-80F35D531A54}" name="Produto"/>
+    <tableColumn id="4" xr3:uid="{30FEC86B-7527-402A-BB23-848902DE3961}" name="Medida" dataDxfId="18">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C64E63D5-9EC1-4020-88F2-10F4E1F6369D}" name="Quantidade"/>
+    <tableColumn id="6" xr3:uid="{F43F2544-44C3-4899-A038-908EEB3D72B6}" name="Preço Unitário" dataDxfId="17">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{DFD4F22F-248E-49CB-9B75-EF042D228021}" name="Subtotal" dataDxfId="16">
+      <calculatedColumnFormula>Tabela5710[[#This Row],[Quantidade]]*Tabela5710[[#This Row],[Preço Unitário]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{5A7EEB63-A4D4-4AC4-B639-8D76302CD235}" name="Desconto"/>
+    <tableColumn id="9" xr3:uid="{44EC7BB8-2680-4E35-871D-B96B46AB6D94}" name="Entrega"/>
+    <tableColumn id="10" xr3:uid="{D3843451-0C02-44E0-8972-7A14B7E27DC3}" name="Valor de Entrega" dataDxfId="15">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{011E81B0-590C-47EC-B368-9B1B796105D6}" name="Total" dataDxfId="14" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela5710[[#This Row],[Subtotal]]*(1-Tabela5710[[#This Row],[Desconto]])+Tabela5710[[#This Row],[Valor de Entrega]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{5A261D43-1FEF-446F-8EA6-60F6BD0012CD}" name="Total para o Cliente" dataDxfId="13" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela5710[[#This Row],[Id da Venda]]=B6,"",SUMIF(Tabela5710[Id da Venda],Tabela5710[[#This Row],[Id da Venda]],Tabela5710[Total]))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3E69D0A6-21DD-4747-BE97-255E236964C5}" name="Tabela5711" displayName="Tabela5711" ref="B4:M18" totalsRowShown="0">
+  <autoFilter ref="B4:M18" xr:uid="{7D631E6B-AFC5-47B3-BBEE-A2998877C790}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{64037792-5108-432B-8BA6-2C47E1E85906}" name="Id da Venda"/>
+    <tableColumn id="2" xr3:uid="{C129BA88-F633-479A-B05F-0274947FAFF2}" name="Data"/>
+    <tableColumn id="3" xr3:uid="{03CBF25C-9C82-43BD-9A1F-BD7252C9EBF0}" name="Produto"/>
+    <tableColumn id="4" xr3:uid="{85C8041C-7017-4927-8685-C2EBA29C69C0}" name="Medida" dataDxfId="12">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{562302A2-16DA-4F6F-AA40-B1C6C574B103}" name="Quantidade"/>
+    <tableColumn id="6" xr3:uid="{7B8CC8E5-9591-49FE-9735-41EED24870F7}" name="Preço Unitário" dataDxfId="11">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{04B5F1D5-0AC7-4751-A0E1-78A8862A98DE}" name="Subtotal" dataDxfId="10">
+      <calculatedColumnFormula>Tabela5711[[#This Row],[Quantidade]]*Tabela5711[[#This Row],[Preço Unitário]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{C5251237-7BEB-43D5-AC78-915AAFC34495}" name="Desconto"/>
+    <tableColumn id="9" xr3:uid="{F21FE56F-58FA-4D15-9F92-D24F6A18F241}" name="Entrega"/>
+    <tableColumn id="10" xr3:uid="{1F71F3AD-5DB7-4904-8AA2-D4C782F52FAC}" name="Valor de Entrega" dataDxfId="9">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{48F411BB-CA63-4110-A581-D027E49563D2}" name="Total" dataDxfId="8" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela5711[[#This Row],[Subtotal]]*(1-Tabela5711[[#This Row],[Desconto]])+Tabela5711[[#This Row],[Valor de Entrega]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{D2DCD0C1-4A1E-44C3-A54A-F9EC56725856}" name="Total para o Cliente" dataDxfId="7" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela5711[[#This Row],[Id da Venda]]=B6,"",SUMIF(Tabela5711[Id da Venda],Tabela5711[[#This Row],[Id da Venda]],Tabela5711[Total]))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1425,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
@@ -1436,11 +1885,1921 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EED4B8C-19AF-4625-871C-84AF439D1D62}">
+  <dimension ref="B2:M22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" s="23" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="7"/>
+      <c r="G5" s="3">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <f>Tabela579[[#This Row],[Quantidade]]*Tabela579[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="K5" s="9">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <f>Tabela579[[#This Row],[Subtotal]]*(1-Tabela579[[#This Row],[Desconto]])+Tabela579[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="str">
+        <f>IF(Tabela579[[#This Row],[Id da Venda]]=B6,"",SUMIF(Tabela579[Id da Venda],Tabela579[[#This Row],[Id da Venda]],Tabela579[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="G6" s="3">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <f>Tabela579[[#This Row],[Quantidade]]*Tabela579[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="K6" s="9">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <f>Tabela579[[#This Row],[Subtotal]]*(1-Tabela579[[#This Row],[Desconto]])+Tabela579[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="str">
+        <f>IF(Tabela579[[#This Row],[Id da Venda]]=B7,"",SUMIF(Tabela579[Id da Venda],Tabela579[[#This Row],[Id da Venda]],Tabela579[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G7" s="3">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <f>Tabela579[[#This Row],[Quantidade]]*Tabela579[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="K7" s="9">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <f>Tabela579[[#This Row],[Subtotal]]*(1-Tabela579[[#This Row],[Desconto]])+Tabela579[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="str">
+        <f>IF(Tabela579[[#This Row],[Id da Venda]]=B8,"",SUMIF(Tabela579[Id da Venda],Tabela579[[#This Row],[Id da Venda]],Tabela579[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G8" s="3">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <f>Tabela579[[#This Row],[Quantidade]]*Tabela579[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="K8" s="9">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <f>Tabela579[[#This Row],[Subtotal]]*(1-Tabela579[[#This Row],[Desconto]])+Tabela579[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="9" t="str">
+        <f>IF(Tabela579[[#This Row],[Id da Venda]]=B9,"",SUMIF(Tabela579[Id da Venda],Tabela579[[#This Row],[Id da Venda]],Tabela579[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E9" t="str">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G9" s="3">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <f>Tabela579[[#This Row],[Quantidade]]*Tabela579[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="K9" s="9">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <f>Tabela579[[#This Row],[Subtotal]]*(1-Tabela579[[#This Row],[Desconto]])+Tabela579[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="9" t="str">
+        <f>IF(Tabela579[[#This Row],[Id da Venda]]=B10,"",SUMIF(Tabela579[Id da Venda],Tabela579[[#This Row],[Id da Venda]],Tabela579[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G10" s="3">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <f>Tabela579[[#This Row],[Quantidade]]*Tabela579[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="K10" s="9">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <f>Tabela579[[#This Row],[Subtotal]]*(1-Tabela579[[#This Row],[Desconto]])+Tabela579[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="9" t="str">
+        <f>IF(Tabela579[[#This Row],[Id da Venda]]=B11,"",SUMIF(Tabela579[Id da Venda],Tabela579[[#This Row],[Id da Venda]],Tabela579[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E11" t="str">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G11" s="3">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <f>Tabela579[[#This Row],[Quantidade]]*Tabela579[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="K11" s="9">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <f>Tabela579[[#This Row],[Subtotal]]*(1-Tabela579[[#This Row],[Desconto]])+Tabela579[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="9" t="str">
+        <f>IF(Tabela579[[#This Row],[Id da Venda]]=B12,"",SUMIF(Tabela579[Id da Venda],Tabela579[[#This Row],[Id da Venda]],Tabela579[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E12" t="str">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G12" s="3">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <f>Tabela579[[#This Row],[Quantidade]]*Tabela579[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="K12" s="9">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <f>Tabela579[[#This Row],[Subtotal]]*(1-Tabela579[[#This Row],[Desconto]])+Tabela579[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="9" t="str">
+        <f>IF(Tabela579[[#This Row],[Id da Venda]]=B13,"",SUMIF(Tabela579[Id da Venda],Tabela579[[#This Row],[Id da Venda]],Tabela579[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E13" t="str">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G13" s="3">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <f>Tabela579[[#This Row],[Quantidade]]*Tabela579[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="K13" s="9">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <f>Tabela579[[#This Row],[Subtotal]]*(1-Tabela579[[#This Row],[Desconto]])+Tabela579[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="9" t="str">
+        <f>IF(Tabela579[[#This Row],[Id da Venda]]=B14,"",SUMIF(Tabela579[Id da Venda],Tabela579[[#This Row],[Id da Venda]],Tabela579[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E14" t="str">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G14" s="3">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <f>Tabela579[[#This Row],[Quantidade]]*Tabela579[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="K14" s="9">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <f>Tabela579[[#This Row],[Subtotal]]*(1-Tabela579[[#This Row],[Desconto]])+Tabela579[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="9" t="str">
+        <f>IF(Tabela579[[#This Row],[Id da Venda]]=B15,"",SUMIF(Tabela579[Id da Venda],Tabela579[[#This Row],[Id da Venda]],Tabela579[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E15" t="str">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G15" s="3">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <f>Tabela579[[#This Row],[Quantidade]]*Tabela579[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="K15" s="9">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <f>Tabela579[[#This Row],[Subtotal]]*(1-Tabela579[[#This Row],[Desconto]])+Tabela579[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="9" t="str">
+        <f>IF(Tabela579[[#This Row],[Id da Venda]]=B16,"",SUMIF(Tabela579[Id da Venda],Tabela579[[#This Row],[Id da Venda]],Tabela579[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E16" t="str">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G16" s="3">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <f>Tabela579[[#This Row],[Quantidade]]*Tabela579[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="K16" s="9">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <f>Tabela579[[#This Row],[Subtotal]]*(1-Tabela579[[#This Row],[Desconto]])+Tabela579[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="9" t="str">
+        <f>IF(Tabela579[[#This Row],[Id da Venda]]=B17,"",SUMIF(Tabela579[Id da Venda],Tabela579[[#This Row],[Id da Venda]],Tabela579[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E17" t="str">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="3">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <f>Tabela579[[#This Row],[Quantidade]]*Tabela579[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="K17" s="9">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <f>Tabela579[[#This Row],[Subtotal]]*(1-Tabela579[[#This Row],[Desconto]])+Tabela579[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="9" t="str">
+        <f>IF(Tabela579[[#This Row],[Id da Venda]]=B18,"",SUMIF(Tabela579[Id da Venda],Tabela579[[#This Row],[Id da Venda]],Tabela579[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E18" t="str">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G18" s="3">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <f>Tabela579[[#This Row],[Quantidade]]*Tabela579[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <f>IFERROR(VLOOKUP(Tabela579[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <f>Tabela579[[#This Row],[Subtotal]]*(1-Tabela579[[#This Row],[Desconto]])+Tabela579[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="9" t="str">
+        <f>IF(Tabela579[[#This Row],[Id da Venda]]=B19,"",SUMIF(Tabela579[Id da Venda],Tabela579[[#This Row],[Id da Venda]],Tabela579[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B21" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27">
+        <f>SUM(Tabela579[Total])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B22" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30">
+        <f>SUM(Tabela579[Valor de Entrega])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{611B7128-F199-43A0-9DAA-C6F32418B6DA}">
+          <x14:formula1>
+            <xm:f>cálculos!$B$7:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>J5:J18</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{12944083-AAEB-4507-BC0A-41F74CD4A77D}">
+          <x14:formula1>
+            <xm:f>cálculos!$M$7:$M$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5:D17</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB29C4-D73F-4E48-BE9D-70BC53DB52DE}">
+  <dimension ref="B2:M22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" s="23" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="7"/>
+      <c r="G5" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <f>Tabela5710[[#This Row],[Quantidade]]*Tabela5710[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="K5" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <f>Tabela5710[[#This Row],[Subtotal]]*(1-Tabela5710[[#This Row],[Desconto]])+Tabela5710[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="str">
+        <f>IF(Tabela5710[[#This Row],[Id da Venda]]=B6,"",SUMIF(Tabela5710[Id da Venda],Tabela5710[[#This Row],[Id da Venda]],Tabela5710[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="G6" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <f>Tabela5710[[#This Row],[Quantidade]]*Tabela5710[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="K6" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <f>Tabela5710[[#This Row],[Subtotal]]*(1-Tabela5710[[#This Row],[Desconto]])+Tabela5710[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="str">
+        <f>IF(Tabela5710[[#This Row],[Id da Venda]]=B7,"",SUMIF(Tabela5710[Id da Venda],Tabela5710[[#This Row],[Id da Venda]],Tabela5710[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G7" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <f>Tabela5710[[#This Row],[Quantidade]]*Tabela5710[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="K7" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <f>Tabela5710[[#This Row],[Subtotal]]*(1-Tabela5710[[#This Row],[Desconto]])+Tabela5710[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="str">
+        <f>IF(Tabela5710[[#This Row],[Id da Venda]]=B8,"",SUMIF(Tabela5710[Id da Venda],Tabela5710[[#This Row],[Id da Venda]],Tabela5710[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E8" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G8" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <f>Tabela5710[[#This Row],[Quantidade]]*Tabela5710[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="K8" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <f>Tabela5710[[#This Row],[Subtotal]]*(1-Tabela5710[[#This Row],[Desconto]])+Tabela5710[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="9" t="str">
+        <f>IF(Tabela5710[[#This Row],[Id da Venda]]=B9,"",SUMIF(Tabela5710[Id da Venda],Tabela5710[[#This Row],[Id da Venda]],Tabela5710[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E9" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G9" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <f>Tabela5710[[#This Row],[Quantidade]]*Tabela5710[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="K9" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <f>Tabela5710[[#This Row],[Subtotal]]*(1-Tabela5710[[#This Row],[Desconto]])+Tabela5710[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="9" t="str">
+        <f>IF(Tabela5710[[#This Row],[Id da Venda]]=B10,"",SUMIF(Tabela5710[Id da Venda],Tabela5710[[#This Row],[Id da Venda]],Tabela5710[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G10" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <f>Tabela5710[[#This Row],[Quantidade]]*Tabela5710[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="K10" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <f>Tabela5710[[#This Row],[Subtotal]]*(1-Tabela5710[[#This Row],[Desconto]])+Tabela5710[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="9" t="str">
+        <f>IF(Tabela5710[[#This Row],[Id da Venda]]=B11,"",SUMIF(Tabela5710[Id da Venda],Tabela5710[[#This Row],[Id da Venda]],Tabela5710[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E11" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G11" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <f>Tabela5710[[#This Row],[Quantidade]]*Tabela5710[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="K11" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <f>Tabela5710[[#This Row],[Subtotal]]*(1-Tabela5710[[#This Row],[Desconto]])+Tabela5710[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="9" t="str">
+        <f>IF(Tabela5710[[#This Row],[Id da Venda]]=B12,"",SUMIF(Tabela5710[Id da Venda],Tabela5710[[#This Row],[Id da Venda]],Tabela5710[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E12" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G12" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <f>Tabela5710[[#This Row],[Quantidade]]*Tabela5710[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="K12" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <f>Tabela5710[[#This Row],[Subtotal]]*(1-Tabela5710[[#This Row],[Desconto]])+Tabela5710[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="9" t="str">
+        <f>IF(Tabela5710[[#This Row],[Id da Venda]]=B13,"",SUMIF(Tabela5710[Id da Venda],Tabela5710[[#This Row],[Id da Venda]],Tabela5710[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E13" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G13" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <f>Tabela5710[[#This Row],[Quantidade]]*Tabela5710[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="K13" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <f>Tabela5710[[#This Row],[Subtotal]]*(1-Tabela5710[[#This Row],[Desconto]])+Tabela5710[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="9" t="str">
+        <f>IF(Tabela5710[[#This Row],[Id da Venda]]=B14,"",SUMIF(Tabela5710[Id da Venda],Tabela5710[[#This Row],[Id da Venda]],Tabela5710[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E14" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G14" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <f>Tabela5710[[#This Row],[Quantidade]]*Tabela5710[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="K14" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <f>Tabela5710[[#This Row],[Subtotal]]*(1-Tabela5710[[#This Row],[Desconto]])+Tabela5710[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="9" t="str">
+        <f>IF(Tabela5710[[#This Row],[Id da Venda]]=B15,"",SUMIF(Tabela5710[Id da Venda],Tabela5710[[#This Row],[Id da Venda]],Tabela5710[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E15" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G15" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <f>Tabela5710[[#This Row],[Quantidade]]*Tabela5710[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="K15" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <f>Tabela5710[[#This Row],[Subtotal]]*(1-Tabela5710[[#This Row],[Desconto]])+Tabela5710[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="9" t="str">
+        <f>IF(Tabela5710[[#This Row],[Id da Venda]]=B16,"",SUMIF(Tabela5710[Id da Venda],Tabela5710[[#This Row],[Id da Venda]],Tabela5710[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E16" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G16" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <f>Tabela5710[[#This Row],[Quantidade]]*Tabela5710[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="K16" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <f>Tabela5710[[#This Row],[Subtotal]]*(1-Tabela5710[[#This Row],[Desconto]])+Tabela5710[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="9" t="str">
+        <f>IF(Tabela5710[[#This Row],[Id da Venda]]=B17,"",SUMIF(Tabela5710[Id da Venda],Tabela5710[[#This Row],[Id da Venda]],Tabela5710[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E17" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <f>Tabela5710[[#This Row],[Quantidade]]*Tabela5710[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="K17" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <f>Tabela5710[[#This Row],[Subtotal]]*(1-Tabela5710[[#This Row],[Desconto]])+Tabela5710[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="9" t="str">
+        <f>IF(Tabela5710[[#This Row],[Id da Venda]]=B18,"",SUMIF(Tabela5710[Id da Venda],Tabela5710[[#This Row],[Id da Venda]],Tabela5710[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E18" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G18" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <f>Tabela5710[[#This Row],[Quantidade]]*Tabela5710[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <f>Tabela5710[[#This Row],[Subtotal]]*(1-Tabela5710[[#This Row],[Desconto]])+Tabela5710[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="9" t="str">
+        <f>IF(Tabela5710[[#This Row],[Id da Venda]]=B19,"",SUMIF(Tabela5710[Id da Venda],Tabela5710[[#This Row],[Id da Venda]],Tabela5710[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B21" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27">
+        <f>SUM(Tabela5710[Total])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B22" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30">
+        <f>SUM(Tabela5710[Valor de Entrega])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4111DA60-4B1D-499E-B59B-2B9C70588A59}">
+          <x14:formula1>
+            <xm:f>cálculos!$M$7:$M$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5:D17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4BF46A46-F787-49CF-8EBD-AE29AB270817}">
+          <x14:formula1>
+            <xm:f>cálculos!$B$7:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>J5:J18</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028B50B0-20AC-4EC4-9ED3-2BA5CCB91F57}">
+  <dimension ref="B2:M22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" s="23" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="7"/>
+      <c r="G5" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <f>Tabela5711[[#This Row],[Quantidade]]*Tabela5711[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="K5" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <f>Tabela5711[[#This Row],[Subtotal]]*(1-Tabela5711[[#This Row],[Desconto]])+Tabela5711[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="str">
+        <f>IF(Tabela5711[[#This Row],[Id da Venda]]=B6,"",SUMIF(Tabela5711[Id da Venda],Tabela5711[[#This Row],[Id da Venda]],Tabela5711[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="G6" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <f>Tabela5711[[#This Row],[Quantidade]]*Tabela5711[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="K6" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <f>Tabela5711[[#This Row],[Subtotal]]*(1-Tabela5711[[#This Row],[Desconto]])+Tabela5711[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="str">
+        <f>IF(Tabela5711[[#This Row],[Id da Venda]]=B7,"",SUMIF(Tabela5711[Id da Venda],Tabela5711[[#This Row],[Id da Venda]],Tabela5711[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G7" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <f>Tabela5711[[#This Row],[Quantidade]]*Tabela5711[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="K7" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <f>Tabela5711[[#This Row],[Subtotal]]*(1-Tabela5711[[#This Row],[Desconto]])+Tabela5711[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="str">
+        <f>IF(Tabela5711[[#This Row],[Id da Venda]]=B8,"",SUMIF(Tabela5711[Id da Venda],Tabela5711[[#This Row],[Id da Venda]],Tabela5711[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E8" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G8" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <f>Tabela5711[[#This Row],[Quantidade]]*Tabela5711[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="K8" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <f>Tabela5711[[#This Row],[Subtotal]]*(1-Tabela5711[[#This Row],[Desconto]])+Tabela5711[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="9" t="str">
+        <f>IF(Tabela5711[[#This Row],[Id da Venda]]=B9,"",SUMIF(Tabela5711[Id da Venda],Tabela5711[[#This Row],[Id da Venda]],Tabela5711[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E9" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G9" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <f>Tabela5711[[#This Row],[Quantidade]]*Tabela5711[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="K9" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <f>Tabela5711[[#This Row],[Subtotal]]*(1-Tabela5711[[#This Row],[Desconto]])+Tabela5711[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="9" t="str">
+        <f>IF(Tabela5711[[#This Row],[Id da Venda]]=B10,"",SUMIF(Tabela5711[Id da Venda],Tabela5711[[#This Row],[Id da Venda]],Tabela5711[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G10" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <f>Tabela5711[[#This Row],[Quantidade]]*Tabela5711[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="K10" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <f>Tabela5711[[#This Row],[Subtotal]]*(1-Tabela5711[[#This Row],[Desconto]])+Tabela5711[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="9" t="str">
+        <f>IF(Tabela5711[[#This Row],[Id da Venda]]=B11,"",SUMIF(Tabela5711[Id da Venda],Tabela5711[[#This Row],[Id da Venda]],Tabela5711[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E11" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G11" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <f>Tabela5711[[#This Row],[Quantidade]]*Tabela5711[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="K11" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <f>Tabela5711[[#This Row],[Subtotal]]*(1-Tabela5711[[#This Row],[Desconto]])+Tabela5711[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="9" t="str">
+        <f>IF(Tabela5711[[#This Row],[Id da Venda]]=B12,"",SUMIF(Tabela5711[Id da Venda],Tabela5711[[#This Row],[Id da Venda]],Tabela5711[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E12" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G12" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <f>Tabela5711[[#This Row],[Quantidade]]*Tabela5711[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="K12" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <f>Tabela5711[[#This Row],[Subtotal]]*(1-Tabela5711[[#This Row],[Desconto]])+Tabela5711[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="9" t="str">
+        <f>IF(Tabela5711[[#This Row],[Id da Venda]]=B13,"",SUMIF(Tabela5711[Id da Venda],Tabela5711[[#This Row],[Id da Venda]],Tabela5711[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E13" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G13" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <f>Tabela5711[[#This Row],[Quantidade]]*Tabela5711[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="K13" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <f>Tabela5711[[#This Row],[Subtotal]]*(1-Tabela5711[[#This Row],[Desconto]])+Tabela5711[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="9" t="str">
+        <f>IF(Tabela5711[[#This Row],[Id da Venda]]=B14,"",SUMIF(Tabela5711[Id da Venda],Tabela5711[[#This Row],[Id da Venda]],Tabela5711[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E14" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G14" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <f>Tabela5711[[#This Row],[Quantidade]]*Tabela5711[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="K14" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <f>Tabela5711[[#This Row],[Subtotal]]*(1-Tabela5711[[#This Row],[Desconto]])+Tabela5711[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="9" t="str">
+        <f>IF(Tabela5711[[#This Row],[Id da Venda]]=B15,"",SUMIF(Tabela5711[Id da Venda],Tabela5711[[#This Row],[Id da Venda]],Tabela5711[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E15" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G15" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <f>Tabela5711[[#This Row],[Quantidade]]*Tabela5711[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="K15" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <f>Tabela5711[[#This Row],[Subtotal]]*(1-Tabela5711[[#This Row],[Desconto]])+Tabela5711[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="9" t="str">
+        <f>IF(Tabela5711[[#This Row],[Id da Venda]]=B16,"",SUMIF(Tabela5711[Id da Venda],Tabela5711[[#This Row],[Id da Venda]],Tabela5711[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E16" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G16" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <f>Tabela5711[[#This Row],[Quantidade]]*Tabela5711[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="K16" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <f>Tabela5711[[#This Row],[Subtotal]]*(1-Tabela5711[[#This Row],[Desconto]])+Tabela5711[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="9" t="str">
+        <f>IF(Tabela5711[[#This Row],[Id da Venda]]=B17,"",SUMIF(Tabela5711[Id da Venda],Tabela5711[[#This Row],[Id da Venda]],Tabela5711[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E17" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <f>Tabela5711[[#This Row],[Quantidade]]*Tabela5711[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="K17" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <f>Tabela5711[[#This Row],[Subtotal]]*(1-Tabela5711[[#This Row],[Desconto]])+Tabela5711[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="9" t="str">
+        <f>IF(Tabela5711[[#This Row],[Id da Venda]]=B18,"",SUMIF(Tabela5711[Id da Venda],Tabela5711[[#This Row],[Id da Venda]],Tabela5711[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E18" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G18" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <f>Tabela5711[[#This Row],[Quantidade]]*Tabela5711[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <f>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <f>Tabela5711[[#This Row],[Subtotal]]*(1-Tabela5711[[#This Row],[Desconto]])+Tabela5711[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="9" t="str">
+        <f>IF(Tabela5711[[#This Row],[Id da Venda]]=B19,"",SUMIF(Tabela5711[Id da Venda],Tabela5711[[#This Row],[Id da Venda]],Tabela5711[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B21" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27">
+        <f>SUM(Tabela5711[Total])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B22" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30">
+        <f>SUM(Tabela5711[Valor de Entrega])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{72C97F7C-4311-41E7-B0E9-39BD5EDCB5F0}">
+          <x14:formula1>
+            <xm:f>cálculos!$M$7:$M$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5:D17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E927F21E-56F0-4D90-B91B-22A3BBF1341B}">
+          <x14:formula1>
+            <xm:f>cálculos!$B$7:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>J5:J18</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="B6:P30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="9">
+        <v>2.8405</v>
+      </c>
+      <c r="O7" s="9">
+        <v>2.99</v>
+      </c>
+      <c r="P7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="9">
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="O8" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="9">
+        <v>2.3406000000000002</v>
+      </c>
+      <c r="O9" s="9">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="P9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="9">
+        <v>8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="9">
+        <v>1.8506999999999998</v>
+      </c>
+      <c r="O10" s="9">
+        <v>1.99</v>
+      </c>
+      <c r="P10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="9">
+        <v>1.0924999999999998</v>
+      </c>
+      <c r="O11" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="P12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="9">
+        <v>14.469000000000001</v>
+      </c>
+      <c r="O13" s="9">
+        <v>15.9</v>
+      </c>
+      <c r="P13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="9">
+        <v>3.6309000000000005</v>
+      </c>
+      <c r="O14" s="9">
+        <v>3.99</v>
+      </c>
+      <c r="P14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="9">
+        <v>2.1023999999999998</v>
+      </c>
+      <c r="O15" s="9">
+        <v>2.19</v>
+      </c>
+      <c r="P15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="9">
+        <v>4.5409000000000006</v>
+      </c>
+      <c r="O16" s="9">
+        <v>4.99</v>
+      </c>
+      <c r="P16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="9">
+        <v>6.3449999999999998</v>
+      </c>
+      <c r="O17" s="9">
+        <v>6.75</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="9">
+        <v>2.3660000000000001</v>
+      </c>
+      <c r="O18" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="P18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="9">
+        <v>4.0659999999999998</v>
+      </c>
+      <c r="O19" s="9">
+        <v>4.28</v>
+      </c>
+      <c r="P19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="9">
+        <v>6.4216000000000006</v>
+      </c>
+      <c r="O20" s="9">
+        <v>6.98</v>
+      </c>
+      <c r="P20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M21" t="s">
+        <v>71</v>
+      </c>
+      <c r="N21" s="9">
+        <v>1.3708</v>
+      </c>
+      <c r="O21" s="9">
+        <v>1.49</v>
+      </c>
+      <c r="P21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M22" t="s">
+        <v>76</v>
+      </c>
+      <c r="N22" s="9">
+        <v>2.6299000000000001</v>
+      </c>
+      <c r="O22" s="9">
+        <v>2.89</v>
+      </c>
+      <c r="P22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="9">
+        <v>22.226999999999997</v>
+      </c>
+      <c r="O23" s="9">
+        <v>23.9</v>
+      </c>
+      <c r="P23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="9">
+        <v>23.827999999999999</v>
+      </c>
+      <c r="O24" s="9">
+        <v>25.9</v>
+      </c>
+      <c r="P24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M25" t="s">
+        <v>77</v>
+      </c>
+      <c r="N25" s="9">
+        <v>2.1749000000000001</v>
+      </c>
+      <c r="O25" s="9">
+        <v>2.39</v>
+      </c>
+      <c r="P25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="9">
+        <v>3.2084999999999999</v>
+      </c>
+      <c r="O26" s="9">
+        <v>3.45</v>
+      </c>
+      <c r="P26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="9">
+        <v>5.3544000000000009</v>
+      </c>
+      <c r="O27" s="9">
+        <v>5.82</v>
+      </c>
+      <c r="P27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M28" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="9">
+        <v>9.1009999999999991</v>
+      </c>
+      <c r="O28" s="9">
+        <v>9.58</v>
+      </c>
+      <c r="P28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="9">
+        <v>26.012999999999998</v>
+      </c>
+      <c r="O29" s="9">
+        <v>29.9</v>
+      </c>
+      <c r="P29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" s="9">
+        <v>46.664999999999999</v>
+      </c>
+      <c r="O30" s="9">
+        <v>54.9</v>
+      </c>
+      <c r="P30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="M6:P6" xr:uid="{ECCBCB4F-BB79-43B6-A004-52505D7F85F7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M7:P30">
+      <sortCondition ref="M6"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:S33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1749,7 +4108,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="13">
-        <f>'Controle Mercadorias'!I28</f>
+        <f>'Compras Mercadorias'!I28</f>
         <v>14057.59987</v>
       </c>
     </row>
@@ -1791,7 +4150,7 @@
   <dimension ref="A2:Y28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2518,7 +4877,7 @@
   <dimension ref="A2:Y12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2663,7 +5022,7 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3285,11 +5644,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H6:H29">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Comprar">
-      <formula>NOT(ISERROR(SEARCH("Comprar",H6)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Atenção">
       <formula>NOT(ISERROR(SEARCH("Atenção",H6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Comprar">
+      <formula>NOT(ISERROR(SEARCH("Comprar",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3356,377 +5715,1707 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="M6:P30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C632A9DC-7B01-4617-A53F-EAA1F10253E3}">
+  <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" s="8" t="s">
+    <row r="2" spans="2:13" s="23" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M7" t="s">
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5" s="33">
+        <v>42190</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Pacote</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H5" s="9">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>11.5</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B6,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>11.5</v>
+      </c>
+      <c r="M5" s="9" t="str">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B6,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6" s="33">
+        <v>42190</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Pacote</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0.79</v>
+      </c>
+      <c r="H6" s="9">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>0.79</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B7,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>0.79</v>
+      </c>
+      <c r="M6" s="9" t="str">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B7,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7" s="33">
+        <v>42190</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Kg</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>15.9</v>
+      </c>
+      <c r="H7" s="9">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>159</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B8,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>151.04999999999998</v>
+      </c>
+      <c r="M7" s="9" t="str">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B8,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8" s="33">
+        <v>42190</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Lata</v>
+      </c>
+      <c r="F8">
         <v>24</v>
       </c>
-      <c r="N7" s="9">
-        <v>2.8405</v>
-      </c>
-      <c r="O7" s="9">
+      <c r="G8" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>2.19</v>
+      </c>
+      <c r="H8" s="9">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>52.56</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B9,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>6.5</v>
+      </c>
+      <c r="L8" s="9">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>56.432000000000002</v>
+      </c>
+      <c r="M8" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B9,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v>219.77199999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" s="33">
+        <v>42189</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Lata</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>2.19</v>
+      </c>
+      <c r="H9" s="9">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>2.19</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B10,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>2.19</v>
+      </c>
+      <c r="M9" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B10,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" s="33">
+        <v>42189</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Lata</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>2.19</v>
+      </c>
+      <c r="H10" s="9">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>21.9</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B11,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>21.9</v>
+      </c>
+      <c r="M10" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B11,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="33">
+        <v>42189</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Kg</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>4.28</v>
+      </c>
+      <c r="H11" s="9">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>25.68</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B12,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>25.68</v>
+      </c>
+      <c r="M11" s="9" t="str">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B12,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="33">
+        <v>42189</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Litro</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>2.39</v>
+      </c>
+      <c r="H12" s="9">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>9.56</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B13,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>9.56</v>
+      </c>
+      <c r="M12" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B13,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v>35.24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" s="33">
+        <v>42188</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Unidade</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>2.89</v>
+      </c>
+      <c r="H13" s="9">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>14.450000000000001</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B14,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>14.450000000000001</v>
+      </c>
+      <c r="M13" s="9" t="str">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B14,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" s="33">
+        <v>42188</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Kg</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>9.58</v>
+      </c>
+      <c r="H14" s="9">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>19.16</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B15,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>19.16</v>
+      </c>
+      <c r="M14" s="9" t="str">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B15,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" s="33">
+        <v>42188</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Kg</v>
+      </c>
+      <c r="F15">
+        <v>1.5</v>
+      </c>
+      <c r="G15" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>25.9</v>
+      </c>
+      <c r="H15" s="9">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>38.849999999999994</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B16,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>38.849999999999994</v>
+      </c>
+      <c r="M15" s="9" t="str">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B16,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" s="33">
+        <v>42188</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Kg</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>4.28</v>
+      </c>
+      <c r="H16" s="9">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>17.12</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B17,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>17.12</v>
+      </c>
+      <c r="M16" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B17,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v>89.58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17" s="33">
+        <v>42188</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Lata</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>2.19</v>
+      </c>
+      <c r="H17" s="9">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>43.8</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J17" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B18,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>6.5</v>
+      </c>
+      <c r="L17" s="9">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>48.109999999999992</v>
+      </c>
+      <c r="M17" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B18,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v>48.109999999999992</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" s="33">
+        <v>42188</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Lata</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>2.19</v>
+      </c>
+      <c r="H18" s="3">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>43.8</v>
+      </c>
+      <c r="I18">
+        <v>0.05</v>
+      </c>
+      <c r="J18" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B19,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>41.609999999999992</v>
+      </c>
+      <c r="M18" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B19,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v>41.609999999999992</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" s="33">
+        <v>42188</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="31" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Pacote</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0.79</v>
+      </c>
+      <c r="H19" s="3">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>1.58</v>
+      </c>
+      <c r="J19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="32">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B20,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="32">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>1.58</v>
+      </c>
+      <c r="M19" s="9" t="str">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B20,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" s="33">
+        <v>42188</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="31" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Kg</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>15.9</v>
+      </c>
+      <c r="H20" s="3">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>95.4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="32">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B21,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="32">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>95.4</v>
+      </c>
+      <c r="M20" s="9" t="str">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B21,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" s="33">
+        <v>42188</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="31" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Lata</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>2.19</v>
+      </c>
+      <c r="H21" s="3">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>26.28</v>
+      </c>
+      <c r="J21" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="32">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B22,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="32">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>26.28</v>
+      </c>
+      <c r="M21" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B22,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v>123.26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" s="33">
+        <v>42187</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="31" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Unidade</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
         <v>2.99</v>
       </c>
-      <c r="P7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
+      <c r="H22" s="3">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="J22" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="32">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B23,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>6.5</v>
+      </c>
+      <c r="L22" s="32">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>15.47</v>
+      </c>
+      <c r="M22" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B23,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="33">
+        <v>42187</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="31" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Pacote</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>1.99</v>
+      </c>
+      <c r="H23" s="3">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>3.98</v>
+      </c>
+      <c r="J23" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="32">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B24,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="32">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>3.98</v>
+      </c>
+      <c r="M23" s="9" t="str">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B24,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" s="33">
+        <v>42187</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="31" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Kg</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H24" s="3">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>12.450000000000001</v>
+      </c>
+      <c r="J24" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="32">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B25,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>6.5</v>
+      </c>
+      <c r="L24" s="32">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>18.950000000000003</v>
+      </c>
+      <c r="M24" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B25,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v>22.930000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" s="33">
+        <v>42187</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="31" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Litro</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>1.49</v>
+      </c>
+      <c r="H25" s="3">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>8.94</v>
+      </c>
+      <c r="J25" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="32">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B26,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>8</v>
+      </c>
+      <c r="L25" s="32">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>16.939999999999998</v>
+      </c>
+      <c r="M25" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B26,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v>16.939999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="33">
+        <v>42187</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="31" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Pacote</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>1.99</v>
+      </c>
+      <c r="H26" s="3">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>1.99</v>
+      </c>
+      <c r="J26" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" s="32">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B27,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>6.5</v>
+      </c>
+      <c r="L26" s="32">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>8.49</v>
+      </c>
+      <c r="M26" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B27,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="33">
+        <v>42187</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="31" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Kg</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H27" s="3">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="J27" t="s">
+        <v>118</v>
+      </c>
+      <c r="K27" s="32">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B28,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="32">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="M27" s="9" t="str">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B28,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="33">
+        <v>42187</v>
+      </c>
+      <c r="D28" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="9">
-        <v>1.0580000000000001</v>
-      </c>
-      <c r="O8" s="9">
+      <c r="E28" s="31" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Pacote</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="P8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="9">
-        <v>2.3406000000000002</v>
-      </c>
-      <c r="O9" s="9">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="P9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M10" t="s">
+      <c r="H28" s="3">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="J28" t="s">
+        <v>118</v>
+      </c>
+      <c r="K28" s="32">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B29,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="32">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="M28" s="9" t="str">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B29,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="33">
+        <v>42187</v>
+      </c>
+      <c r="D29" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="9">
-        <v>1.8506999999999998</v>
-      </c>
-      <c r="O10" s="9">
+      <c r="E29" s="31" t="str">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Pacote</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
         <v>1.99</v>
       </c>
-      <c r="P10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="9">
-        <v>1.0924999999999998</v>
-      </c>
-      <c r="O11" s="9">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M12" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0.74260000000000004</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0.79</v>
-      </c>
-      <c r="P12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="9">
-        <v>14.469000000000001</v>
-      </c>
-      <c r="O13" s="9">
-        <v>15.9</v>
-      </c>
-      <c r="P13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="9">
-        <v>3.6309000000000005</v>
-      </c>
-      <c r="O14" s="9">
-        <v>3.99</v>
-      </c>
-      <c r="P14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M15" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15" s="9">
-        <v>2.1023999999999998</v>
-      </c>
-      <c r="O15" s="9">
-        <v>2.19</v>
-      </c>
-      <c r="P15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M16" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" s="9">
-        <v>4.5409000000000006</v>
-      </c>
-      <c r="O16" s="9">
-        <v>4.99</v>
-      </c>
-      <c r="P16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M17" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" s="9">
-        <v>6.3449999999999998</v>
-      </c>
-      <c r="O17" s="9">
-        <v>6.75</v>
-      </c>
-      <c r="P17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M18" t="s">
-        <v>36</v>
-      </c>
-      <c r="N18" s="9">
-        <v>2.3660000000000001</v>
-      </c>
-      <c r="O18" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="P18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="9">
-        <v>4.0659999999999998</v>
-      </c>
-      <c r="O19" s="9">
-        <v>4.28</v>
-      </c>
-      <c r="P19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="9">
-        <v>6.4216000000000006</v>
-      </c>
-      <c r="O20" s="9">
-        <v>6.98</v>
-      </c>
-      <c r="P20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M21" t="s">
-        <v>71</v>
-      </c>
-      <c r="N21" s="9">
-        <v>1.3708</v>
-      </c>
-      <c r="O21" s="9">
-        <v>1.49</v>
-      </c>
-      <c r="P21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M22" t="s">
-        <v>76</v>
-      </c>
-      <c r="N22" s="9">
-        <v>2.6299000000000001</v>
-      </c>
-      <c r="O22" s="9">
-        <v>2.89</v>
-      </c>
-      <c r="P22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M23" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="9">
-        <v>22.226999999999997</v>
-      </c>
-      <c r="O23" s="9">
-        <v>23.9</v>
-      </c>
-      <c r="P23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M24" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="9">
-        <v>23.827999999999999</v>
-      </c>
-      <c r="O24" s="9">
-        <v>25.9</v>
-      </c>
-      <c r="P24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M25" t="s">
-        <v>77</v>
-      </c>
-      <c r="N25" s="9">
-        <v>2.1749000000000001</v>
-      </c>
-      <c r="O25" s="9">
-        <v>2.39</v>
-      </c>
-      <c r="P25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N26" s="9">
-        <v>3.2084999999999999</v>
-      </c>
-      <c r="O26" s="9">
-        <v>3.45</v>
-      </c>
-      <c r="P26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M27" t="s">
-        <v>23</v>
-      </c>
-      <c r="N27" s="9">
-        <v>5.3544000000000009</v>
-      </c>
-      <c r="O27" s="9">
-        <v>5.82</v>
-      </c>
-      <c r="P27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M28" t="s">
-        <v>32</v>
-      </c>
-      <c r="N28" s="9">
-        <v>9.1009999999999991</v>
-      </c>
-      <c r="O28" s="9">
-        <v>9.58</v>
-      </c>
-      <c r="P28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M29" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="9">
-        <v>26.012999999999998</v>
-      </c>
-      <c r="O29" s="9">
-        <v>29.9</v>
-      </c>
-      <c r="P29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M30" t="s">
+      <c r="H29" s="3">
+        <f>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>1.99</v>
+      </c>
+      <c r="J29" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="32">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B30,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="32">
+        <f>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</f>
+        <v>1.99</v>
+      </c>
+      <c r="M29" s="9">
+        <f>IF(Tabela5[[#This Row],[Id da Venda]]=B30,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B32" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="27">
+        <f>SUM(Tabela5[Total])</f>
+        <v>655.91200000000026</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B33" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="30">
+        <f>SUM(Tabela5[Valor de Entrega])</f>
+        <v>40.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0866EC0D-1BC0-49D9-96A4-9A8CF6948B80}">
+          <x14:formula1>
+            <xm:f>cálculos!$B$7:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>J5:J29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE81A9EC-71BF-4F15-86A0-132E43A08279}">
+          <x14:formula1>
+            <xm:f>cálculos!$M$7:$M$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5:D29</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BD89DD-8E74-475E-938D-4416B6403A0F}">
+  <dimension ref="B2:M22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" s="23" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5" s="7">
+        <v>42139</v>
+      </c>
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="N30" s="9">
-        <v>46.664999999999999</v>
-      </c>
-      <c r="O30" s="9">
+      <c r="E5" t="str">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v>Garrafa</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
         <v>54.9</v>
       </c>
-      <c r="P30" t="s">
-        <v>78</v>
+      <c r="H5" s="9">
+        <f>Tabela57[[#This Row],[Quantidade]]*Tabela57[[#This Row],[Preço Unitário]]</f>
+        <v>54.9</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="9">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="L5" s="9">
+        <f>Tabela57[[#This Row],[Subtotal]]*(1-Tabela57[[#This Row],[Desconto]])+Tabela57[[#This Row],[Valor de Entrega]]</f>
+        <v>62.9</v>
+      </c>
+      <c r="M5" s="9">
+        <f>IF(Tabela57[[#This Row],[Id da Venda]]=B6,"",SUMIF(Tabela57[Id da Venda],Tabela57[[#This Row],[Id da Venda]],Tabela57[Total]))</f>
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="E6" t="str">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G6" s="3">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <f>Tabela57[[#This Row],[Quantidade]]*Tabela57[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="K6" s="9">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <f>Tabela57[[#This Row],[Subtotal]]*(1-Tabela57[[#This Row],[Desconto]])+Tabela57[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="str">
+        <f>IF(Tabela57[[#This Row],[Id da Venda]]=B7,"",SUMIF(Tabela57[Id da Venda],Tabela57[[#This Row],[Id da Venda]],Tabela57[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E7" t="str">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G7" s="3">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <f>Tabela57[[#This Row],[Quantidade]]*Tabela57[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="K7" s="9">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <f>Tabela57[[#This Row],[Subtotal]]*(1-Tabela57[[#This Row],[Desconto]])+Tabela57[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="str">
+        <f>IF(Tabela57[[#This Row],[Id da Venda]]=B8,"",SUMIF(Tabela57[Id da Venda],Tabela57[[#This Row],[Id da Venda]],Tabela57[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E8" t="str">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G8" s="3">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <f>Tabela57[[#This Row],[Quantidade]]*Tabela57[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="K8" s="9">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <f>Tabela57[[#This Row],[Subtotal]]*(1-Tabela57[[#This Row],[Desconto]])+Tabela57[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="9" t="str">
+        <f>IF(Tabela57[[#This Row],[Id da Venda]]=B9,"",SUMIF(Tabela57[Id da Venda],Tabela57[[#This Row],[Id da Venda]],Tabela57[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E9" t="str">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G9" s="3">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <f>Tabela57[[#This Row],[Quantidade]]*Tabela57[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="K9" s="9">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <f>Tabela57[[#This Row],[Subtotal]]*(1-Tabela57[[#This Row],[Desconto]])+Tabela57[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="9" t="str">
+        <f>IF(Tabela57[[#This Row],[Id da Venda]]=B10,"",SUMIF(Tabela57[Id da Venda],Tabela57[[#This Row],[Id da Venda]],Tabela57[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G10" s="3">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <f>Tabela57[[#This Row],[Quantidade]]*Tabela57[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="K10" s="9">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <f>Tabela57[[#This Row],[Subtotal]]*(1-Tabela57[[#This Row],[Desconto]])+Tabela57[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="9" t="str">
+        <f>IF(Tabela57[[#This Row],[Id da Venda]]=B11,"",SUMIF(Tabela57[Id da Venda],Tabela57[[#This Row],[Id da Venda]],Tabela57[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E11" t="str">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G11" s="3">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <f>Tabela57[[#This Row],[Quantidade]]*Tabela57[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="K11" s="9">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <f>Tabela57[[#This Row],[Subtotal]]*(1-Tabela57[[#This Row],[Desconto]])+Tabela57[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="9" t="str">
+        <f>IF(Tabela57[[#This Row],[Id da Venda]]=B12,"",SUMIF(Tabela57[Id da Venda],Tabela57[[#This Row],[Id da Venda]],Tabela57[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E12" t="str">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G12" s="3">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <f>Tabela57[[#This Row],[Quantidade]]*Tabela57[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="K12" s="9">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <f>Tabela57[[#This Row],[Subtotal]]*(1-Tabela57[[#This Row],[Desconto]])+Tabela57[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="9" t="str">
+        <f>IF(Tabela57[[#This Row],[Id da Venda]]=B13,"",SUMIF(Tabela57[Id da Venda],Tabela57[[#This Row],[Id da Venda]],Tabela57[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E13" t="str">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G13" s="3">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <f>Tabela57[[#This Row],[Quantidade]]*Tabela57[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="K13" s="9">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <f>Tabela57[[#This Row],[Subtotal]]*(1-Tabela57[[#This Row],[Desconto]])+Tabela57[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="9" t="str">
+        <f>IF(Tabela57[[#This Row],[Id da Venda]]=B14,"",SUMIF(Tabela57[Id da Venda],Tabela57[[#This Row],[Id da Venda]],Tabela57[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E14" t="str">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G14" s="3">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <f>Tabela57[[#This Row],[Quantidade]]*Tabela57[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="K14" s="9">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <f>Tabela57[[#This Row],[Subtotal]]*(1-Tabela57[[#This Row],[Desconto]])+Tabela57[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="9" t="str">
+        <f>IF(Tabela57[[#This Row],[Id da Venda]]=B15,"",SUMIF(Tabela57[Id da Venda],Tabela57[[#This Row],[Id da Venda]],Tabela57[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E15" t="str">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G15" s="3">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <f>Tabela57[[#This Row],[Quantidade]]*Tabela57[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="K15" s="9">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <f>Tabela57[[#This Row],[Subtotal]]*(1-Tabela57[[#This Row],[Desconto]])+Tabela57[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="9" t="str">
+        <f>IF(Tabela57[[#This Row],[Id da Venda]]=B16,"",SUMIF(Tabela57[Id da Venda],Tabela57[[#This Row],[Id da Venda]],Tabela57[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E16" t="str">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G16" s="3">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <f>Tabela57[[#This Row],[Quantidade]]*Tabela57[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="K16" s="9">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <f>Tabela57[[#This Row],[Subtotal]]*(1-Tabela57[[#This Row],[Desconto]])+Tabela57[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="9" t="str">
+        <f>IF(Tabela57[[#This Row],[Id da Venda]]=B17,"",SUMIF(Tabela57[Id da Venda],Tabela57[[#This Row],[Id da Venda]],Tabela57[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E17" t="str">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="3">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <f>Tabela57[[#This Row],[Quantidade]]*Tabela57[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="K17" s="9">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <f>Tabela57[[#This Row],[Subtotal]]*(1-Tabela57[[#This Row],[Desconto]])+Tabela57[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="9" t="str">
+        <f>IF(Tabela57[[#This Row],[Id da Venda]]=B18,"",SUMIF(Tabela57[Id da Venda],Tabela57[[#This Row],[Id da Venda]],Tabela57[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E18" t="str">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G18" s="3">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <f>Tabela57[[#This Row],[Quantidade]]*Tabela57[[#This Row],[Preço Unitário]]</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <f>Tabela57[[#This Row],[Subtotal]]*(1-Tabela57[[#This Row],[Desconto]])+Tabela57[[#This Row],[Valor de Entrega]]</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="9" t="str">
+        <f>IF(Tabela57[[#This Row],[Id da Venda]]=B19,"",SUMIF(Tabela57[Id da Venda],Tabela57[[#This Row],[Id da Venda]],Tabela57[Total]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B21" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27">
+        <f>SUM(Tabela57[Total])</f>
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B22" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30">
+        <f>SUM(Tabela57[Valor de Entrega])</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="M6:P6" xr:uid="{ECCBCB4F-BB79-43B6-A004-52505D7F85F7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M7:P30">
-      <sortCondition ref="M6"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E8EC845B-31B4-4140-A17B-E261E7C04178}">
+          <x14:formula1>
+            <xm:f>cálculos!$B$7:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>J5:J18</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B1219302-A5D5-4B02-BEEC-CA85C513DCB6}">
+          <x14:formula1>
+            <xm:f>cálculos!$M$7:$M$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5:D17</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Controle Mercado.xlsx
+++ b/Controle Mercado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Karen\Excel\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1330E5-C19D-462A-88BC-C73C07F04843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E934A5FC-E8DF-4BD0-B641-01F5DAC7FAD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
     <sheet name="Semana 5" sheetId="13" r:id="rId12"/>
     <sheet name="cálculos" sheetId="5" r:id="rId13"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId14"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">cálculos!$M$6:$P$6</definedName>
   </definedNames>
@@ -49,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="138">
   <si>
     <t>Manutenção de Equipamentos</t>
   </si>
@@ -69,12 +66,6 @@
     <t>Outros</t>
   </si>
   <si>
-    <t>Vendas</t>
-  </si>
-  <si>
-    <t>Serviços de Entrega</t>
-  </si>
-  <si>
     <t>Receita Líquida</t>
   </si>
   <si>
@@ -433,6 +424,42 @@
   </si>
   <si>
     <t>Vendas Semana 5</t>
+  </si>
+  <si>
+    <t>Ticket Médio</t>
+  </si>
+  <si>
+    <t>Quantidade de Vendas por Região</t>
+  </si>
+  <si>
+    <t>Total de Vendas Semana 1</t>
+  </si>
+  <si>
+    <t>Total de Vendas Semana 2</t>
+  </si>
+  <si>
+    <t>Total de Vendas Semana 3</t>
+  </si>
+  <si>
+    <t>Total de Vendas Semana 4</t>
+  </si>
+  <si>
+    <t>Total de Vendas Semana 5</t>
+  </si>
+  <si>
+    <t>Julho</t>
+  </si>
+  <si>
+    <t>Vendas por Entrega (%)</t>
+  </si>
+  <si>
+    <t>Vendas por Entrega (R$)</t>
+  </si>
+  <si>
+    <t>Receita de Entregas (R$)</t>
+  </si>
+  <si>
+    <t>Número de Vendas</t>
   </si>
 </sst>
 </file>
@@ -442,7 +469,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +531,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -531,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -588,13 +651,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -651,6 +814,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -658,15 +845,6 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="45">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -684,24 +862,6 @@
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -773,6 +933,18 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -780,6 +952,21 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -833,6 +1020,846 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vendas!$C$10:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Total de Vendas Semana 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total de Vendas Semana 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Total de Vendas Semana 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Total de Vendas Semana 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Total de Vendas Semana 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vendas!$D$10:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>655.91200000000026</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E9D1-4D43-9A83-7A5A41B62755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1293945808"/>
+        <c:axId val="1778979024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1293945808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1778979024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1778979024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1293945808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1322,45 +2349,45 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Despesas"/>
-      <sheetName val="Compras Mercadorias"/>
-      <sheetName val="Controle de Estoque"/>
-      <sheetName val="Investimentos"/>
-      <sheetName val="Resultados"/>
-      <sheetName val="Vendas"/>
-      <sheetName val="Sem1"/>
-      <sheetName val="Análise Sem1"/>
-      <sheetName val="Sem2"/>
-      <sheetName val="Análise Sem2"/>
-      <sheetName val="Sem3"/>
-      <sheetName val="Sem4"/>
-      <sheetName val="Sem5"/>
-      <sheetName val="cálculos"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1463040</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>44958</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0888DC-F508-4C36-9FB4-4C81CCE71217}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1449,27 +2476,27 @@
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{F276C9DD-59EC-41C0-BFAC-41E0A3A571C2}" name="Id da Venda"/>
-    <tableColumn id="2" xr3:uid="{3529F82E-B4A1-48C9-9A2E-330F4411134E}" name="Data" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{3529F82E-B4A1-48C9-9A2E-330F4411134E}" name="Data" dataDxfId="32"/>
     <tableColumn id="3" xr3:uid="{2B56FFC1-C17B-4DEF-827B-9C7EC45BD06E}" name="Produto"/>
-    <tableColumn id="4" xr3:uid="{EE0D7D70-F609-446A-B897-48419548EFFF}" name="Medida" dataDxfId="32">
+    <tableColumn id="4" xr3:uid="{EE0D7D70-F609-446A-B897-48419548EFFF}" name="Medida" dataDxfId="31">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{ECD320CD-0C19-481C-AC06-2DF8EC8F82C8}" name="Quantidade"/>
-    <tableColumn id="6" xr3:uid="{A4672970-7224-4ED5-BDAB-2C7E72C2B5F6}" name="Preço Unitário" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{A4672970-7224-4ED5-BDAB-2C7E72C2B5F6}" name="Preço Unitário" dataDxfId="30">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{88382475-B4D6-4765-B6AE-CC313E146A53}" name="Subtotal" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{88382475-B4D6-4765-B6AE-CC313E146A53}" name="Subtotal" dataDxfId="29">
       <calculatedColumnFormula>Tabela5[[#This Row],[Preço Unitário]]*Tabela5[[#This Row],[Quantidade]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{8B8EC2C3-549F-49CD-A604-107200146A94}" name="Desconto"/>
     <tableColumn id="9" xr3:uid="{46D927CD-3071-4D04-8D49-1EA3FD2ECC74}" name="Entrega"/>
-    <tableColumn id="10" xr3:uid="{48B3E9CB-5AB9-46A7-9A54-542CE53A4B9E}" name="Valor de Entrega" dataDxfId="5">
+    <tableColumn id="10" xr3:uid="{48B3E9CB-5AB9-46A7-9A54-542CE53A4B9E}" name="Valor de Entrega" dataDxfId="28">
       <calculatedColumnFormula>IF(Tabela5[[#This Row],[Id da Venda]]=B6,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{99652A64-363A-4AC6-B1F1-CA3A5A4034D6}" name="Total" dataDxfId="31" dataCellStyle="Moeda">
+    <tableColumn id="11" xr3:uid="{99652A64-363A-4AC6-B1F1-CA3A5A4034D6}" name="Total" dataDxfId="27" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela5[[#This Row],[Subtotal]]*(1-Tabela5[[#This Row],[Desconto]])+Tabela5[[#This Row],[Valor de Entrega]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6B592051-6175-4221-97FA-655EC0C06504}" name="Total para o Cliente" dataDxfId="30" dataCellStyle="Moeda">
+    <tableColumn id="12" xr3:uid="{6B592051-6175-4221-97FA-655EC0C06504}" name="Total para o Cliente" dataDxfId="26" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela5[[#This Row],[Id da Venda]]=B6,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1484,25 +2511,25 @@
     <tableColumn id="1" xr3:uid="{2C4AE0FF-C596-4D14-8423-F3244BD268CC}" name="Id da Venda"/>
     <tableColumn id="2" xr3:uid="{C476D0D7-08DD-4048-AEBD-F9721DD466B2}" name="Data"/>
     <tableColumn id="3" xr3:uid="{825084DE-5629-4618-B846-6DC4FC002F06}" name="Produto"/>
-    <tableColumn id="4" xr3:uid="{57D26F82-C1ED-49EE-9B67-8210E04B0BF1}" name="Medida" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{57D26F82-C1ED-49EE-9B67-8210E04B0BF1}" name="Medida" dataDxfId="25">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{B830440C-A533-4606-A26A-F3905C47119F}" name="Quantidade"/>
-    <tableColumn id="6" xr3:uid="{51247FC8-4677-4C6C-BE89-E91C64D8F500}" name="Preço Unitário" dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{51247FC8-4677-4C6C-BE89-E91C64D8F500}" name="Preço Unitário" dataDxfId="24">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D3AF7287-3CC6-4B88-98EE-2F7F2F27F6F4}" name="Subtotal" dataDxfId="28">
+    <tableColumn id="7" xr3:uid="{D3AF7287-3CC6-4B88-98EE-2F7F2F27F6F4}" name="Subtotal" dataDxfId="23">
       <calculatedColumnFormula>Tabela57[[#This Row],[Quantidade]]*Tabela57[[#This Row],[Preço Unitário]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{E0953CBC-F483-454B-99B0-004F4EE4430B}" name="Desconto"/>
     <tableColumn id="9" xr3:uid="{437D2BDF-6981-4CA2-A7E8-0237A5CC523F}" name="Entrega"/>
-    <tableColumn id="10" xr3:uid="{B60EEEF5-5A20-4921-A88E-1B41ED536B36}" name="Valor de Entrega" dataDxfId="27">
+    <tableColumn id="10" xr3:uid="{B60EEEF5-5A20-4921-A88E-1B41ED536B36}" name="Valor de Entrega" dataDxfId="22">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela57[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{51FD6AC1-FF5F-4DB7-9636-BC9EE0CA7CB4}" name="Total" dataDxfId="26" dataCellStyle="Moeda">
+    <tableColumn id="11" xr3:uid="{51FD6AC1-FF5F-4DB7-9636-BC9EE0CA7CB4}" name="Total" dataDxfId="21" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela57[[#This Row],[Subtotal]]*(1-Tabela57[[#This Row],[Desconto]])+Tabela57[[#This Row],[Valor de Entrega]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{BD2AF258-48CF-4D82-8ECD-208E70DE80C6}" name="Total para o Cliente" dataDxfId="25" dataCellStyle="Moeda">
+    <tableColumn id="12" xr3:uid="{BD2AF258-48CF-4D82-8ECD-208E70DE80C6}" name="Total para o Cliente" dataDxfId="20" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela57[[#This Row],[Id da Venda]]=B6,"",SUMIF(Tabela57[Id da Venda],Tabela57[[#This Row],[Id da Venda]],Tabela57[Total]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1517,25 +2544,25 @@
     <tableColumn id="1" xr3:uid="{B4BC53A0-7378-4377-BE14-03A712A411B1}" name="Id da Venda"/>
     <tableColumn id="2" xr3:uid="{D797BDB1-66EA-484A-8E2C-20E87BDD996C}" name="Data"/>
     <tableColumn id="3" xr3:uid="{C4B3F03E-C755-40D5-96C5-6B5FBF77B673}" name="Produto"/>
-    <tableColumn id="4" xr3:uid="{DCE05453-0EB3-42A7-ACC4-242B68C24C54}" name="Medida" dataDxfId="24">
+    <tableColumn id="4" xr3:uid="{DCE05453-0EB3-42A7-ACC4-242B68C24C54}" name="Medida" dataDxfId="19">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{4A95D4C6-EFF6-4E4D-81BF-DD3980903078}" name="Quantidade"/>
-    <tableColumn id="6" xr3:uid="{D5B98FBE-05E2-4958-989C-2126373F4E39}" name="Preço Unitário" dataDxfId="23">
+    <tableColumn id="6" xr3:uid="{D5B98FBE-05E2-4958-989C-2126373F4E39}" name="Preço Unitário" dataDxfId="18">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela579[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1BCECE7F-B835-4008-9B5A-09B7244572FB}" name="Subtotal" dataDxfId="22">
+    <tableColumn id="7" xr3:uid="{1BCECE7F-B835-4008-9B5A-09B7244572FB}" name="Subtotal" dataDxfId="17">
       <calculatedColumnFormula>Tabela579[[#This Row],[Quantidade]]*Tabela579[[#This Row],[Preço Unitário]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{2DD77BE8-D137-4A5A-84D8-97D95CF9E837}" name="Desconto"/>
     <tableColumn id="9" xr3:uid="{55191C68-5370-49F2-9D72-98C5B24D7EFC}" name="Entrega"/>
-    <tableColumn id="10" xr3:uid="{D41D8B72-5882-42DE-9FA6-E9558A5F7C94}" name="Valor de Entrega" dataDxfId="21">
+    <tableColumn id="10" xr3:uid="{D41D8B72-5882-42DE-9FA6-E9558A5F7C94}" name="Valor de Entrega" dataDxfId="16">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela579[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D3D9C423-E79C-4BC8-8090-0470F4D1A8F2}" name="Total" dataDxfId="20" dataCellStyle="Moeda">
+    <tableColumn id="11" xr3:uid="{D3D9C423-E79C-4BC8-8090-0470F4D1A8F2}" name="Total" dataDxfId="15" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela579[[#This Row],[Subtotal]]*(1-Tabela579[[#This Row],[Desconto]])+Tabela579[[#This Row],[Valor de Entrega]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{704D5592-7153-45E1-AF9F-7ECEBB85180B}" name="Total para o Cliente" dataDxfId="19" dataCellStyle="Moeda">
+    <tableColumn id="12" xr3:uid="{704D5592-7153-45E1-AF9F-7ECEBB85180B}" name="Total para o Cliente" dataDxfId="14" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela579[[#This Row],[Id da Venda]]=B6,"",SUMIF(Tabela579[Id da Venda],Tabela579[[#This Row],[Id da Venda]],Tabela579[Total]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1550,25 +2577,25 @@
     <tableColumn id="1" xr3:uid="{3CE324D0-A6A8-4C54-A0F4-EB1CED1E842E}" name="Id da Venda"/>
     <tableColumn id="2" xr3:uid="{9B021535-FE6E-4B01-97AE-CC4E4B246268}" name="Data"/>
     <tableColumn id="3" xr3:uid="{700F5C03-4629-422F-BCFF-80F35D531A54}" name="Produto"/>
-    <tableColumn id="4" xr3:uid="{30FEC86B-7527-402A-BB23-848902DE3961}" name="Medida" dataDxfId="18">
+    <tableColumn id="4" xr3:uid="{30FEC86B-7527-402A-BB23-848902DE3961}" name="Medida" dataDxfId="13">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{C64E63D5-9EC1-4020-88F2-10F4E1F6369D}" name="Quantidade"/>
-    <tableColumn id="6" xr3:uid="{F43F2544-44C3-4899-A038-908EEB3D72B6}" name="Preço Unitário" dataDxfId="17">
+    <tableColumn id="6" xr3:uid="{F43F2544-44C3-4899-A038-908EEB3D72B6}" name="Preço Unitário" dataDxfId="12">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DFD4F22F-248E-49CB-9B75-EF042D228021}" name="Subtotal" dataDxfId="16">
+    <tableColumn id="7" xr3:uid="{DFD4F22F-248E-49CB-9B75-EF042D228021}" name="Subtotal" dataDxfId="11">
       <calculatedColumnFormula>Tabela5710[[#This Row],[Quantidade]]*Tabela5710[[#This Row],[Preço Unitário]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{5A7EEB63-A4D4-4AC4-B639-8D76302CD235}" name="Desconto"/>
     <tableColumn id="9" xr3:uid="{44EC7BB8-2680-4E35-871D-B96B46AB6D94}" name="Entrega"/>
-    <tableColumn id="10" xr3:uid="{D3843451-0C02-44E0-8972-7A14B7E27DC3}" name="Valor de Entrega" dataDxfId="15">
+    <tableColumn id="10" xr3:uid="{D3843451-0C02-44E0-8972-7A14B7E27DC3}" name="Valor de Entrega" dataDxfId="10">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela5710[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{011E81B0-590C-47EC-B368-9B1B796105D6}" name="Total" dataDxfId="14" dataCellStyle="Moeda">
+    <tableColumn id="11" xr3:uid="{011E81B0-590C-47EC-B368-9B1B796105D6}" name="Total" dataDxfId="9" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela5710[[#This Row],[Subtotal]]*(1-Tabela5710[[#This Row],[Desconto]])+Tabela5710[[#This Row],[Valor de Entrega]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{5A261D43-1FEF-446F-8EA6-60F6BD0012CD}" name="Total para o Cliente" dataDxfId="13" dataCellStyle="Moeda">
+    <tableColumn id="12" xr3:uid="{5A261D43-1FEF-446F-8EA6-60F6BD0012CD}" name="Total para o Cliente" dataDxfId="8" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela5710[[#This Row],[Id da Venda]]=B6,"",SUMIF(Tabela5710[Id da Venda],Tabela5710[[#This Row],[Id da Venda]],Tabela5710[Total]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1583,25 +2610,25 @@
     <tableColumn id="1" xr3:uid="{64037792-5108-432B-8BA6-2C47E1E85906}" name="Id da Venda"/>
     <tableColumn id="2" xr3:uid="{C129BA88-F633-479A-B05F-0274947FAFF2}" name="Data"/>
     <tableColumn id="3" xr3:uid="{03CBF25C-9C82-43BD-9A1F-BD7252C9EBF0}" name="Produto"/>
-    <tableColumn id="4" xr3:uid="{85C8041C-7017-4927-8685-C2EBA29C69C0}" name="Medida" dataDxfId="12">
+    <tableColumn id="4" xr3:uid="{85C8041C-7017-4927-8685-C2EBA29C69C0}" name="Medida" dataDxfId="7">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{562302A2-16DA-4F6F-AA40-B1C6C574B103}" name="Quantidade"/>
-    <tableColumn id="6" xr3:uid="{7B8CC8E5-9591-49FE-9735-41EED24870F7}" name="Preço Unitário" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{7B8CC8E5-9591-49FE-9735-41EED24870F7}" name="Preço Unitário" dataDxfId="6">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Produto]],cálculos!$M$7:$P$30,3,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{04B5F1D5-0AC7-4751-A0E1-78A8862A98DE}" name="Subtotal" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{04B5F1D5-0AC7-4751-A0E1-78A8862A98DE}" name="Subtotal" dataDxfId="5">
       <calculatedColumnFormula>Tabela5711[[#This Row],[Quantidade]]*Tabela5711[[#This Row],[Preço Unitário]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{C5251237-7BEB-43D5-AC78-915AAFC34495}" name="Desconto"/>
     <tableColumn id="9" xr3:uid="{F21FE56F-58FA-4D15-9F92-D24F6A18F241}" name="Entrega"/>
-    <tableColumn id="10" xr3:uid="{1F71F3AD-5DB7-4904-8AA2-D4C782F52FAC}" name="Valor de Entrega" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{1F71F3AD-5DB7-4904-8AA2-D4C782F52FAC}" name="Valor de Entrega" dataDxfId="4">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela5711[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{48F411BB-CA63-4110-A581-D027E49563D2}" name="Total" dataDxfId="8" dataCellStyle="Moeda">
+    <tableColumn id="11" xr3:uid="{48F411BB-CA63-4110-A581-D027E49563D2}" name="Total" dataDxfId="3" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela5711[[#This Row],[Subtotal]]*(1-Tabela5711[[#This Row],[Desconto]])+Tabela5711[[#This Row],[Valor de Entrega]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D2DCD0C1-4A1E-44C3-A54A-F9EC56725856}" name="Total para o Cliente" dataDxfId="7" dataCellStyle="Moeda">
+    <tableColumn id="12" xr3:uid="{D2DCD0C1-4A1E-44C3-A54A-F9EC56725856}" name="Total para o Cliente" dataDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela5711[[#This Row],[Id da Venda]]=B6,"",SUMIF(Tabela5711[Id da Venda],Tabela5711[[#This Row],[Id da Venda]],Tabela5711[Total]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1887,10 +2914,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EED4B8C-19AF-4625-871C-84AF439D1D62}">
-  <dimension ref="B2:M22"/>
+  <dimension ref="B2:M23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1911,47 +2938,47 @@
   <sheetData>
     <row r="2" spans="2:13" s="23" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>109</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>110</v>
       </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>111</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>112</v>
-      </c>
-      <c r="L4" t="s">
-        <v>113</v>
-      </c>
-      <c r="M4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -2319,7 +3346,7 @@
     </row>
     <row r="21" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B21" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -2338,7 +3365,7 @@
     </row>
     <row r="22" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B22" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -2352,6 +3379,25 @@
       <c r="L22" s="29"/>
       <c r="M22" s="30">
         <f>SUM(Tabela579[Valor de Entrega])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B23" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="55">
+        <f>SUM(IF(FREQUENCY(Tabela579[Id da Venda],Tabela579[Id da Venda])&gt;0,1,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -2383,10 +3429,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB29C4-D73F-4E48-BE9D-70BC53DB52DE}">
-  <dimension ref="B2:M22"/>
+  <dimension ref="B2:M23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2407,47 +3453,47 @@
   <sheetData>
     <row r="2" spans="2:13" s="23" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>109</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>110</v>
       </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>111</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>112</v>
-      </c>
-      <c r="L4" t="s">
-        <v>113</v>
-      </c>
-      <c r="M4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -2819,7 +3865,7 @@
     </row>
     <row r="21" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B21" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -2838,7 +3884,7 @@
     </row>
     <row r="22" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B22" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -2852,6 +3898,25 @@
       <c r="L22" s="29"/>
       <c r="M22" s="30">
         <f>SUM(Tabela5710[Valor de Entrega])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B23" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="55">
+        <f>SUM(IF(FREQUENCY(Tabela5710[Id da Venda],Tabela5710[Id da Venda])&gt;0,1,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -2883,10 +3948,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028B50B0-20AC-4EC4-9ED3-2BA5CCB91F57}">
-  <dimension ref="B2:M22"/>
+  <dimension ref="B2:M23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2907,47 +3972,47 @@
   <sheetData>
     <row r="2" spans="2:13" s="23" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>109</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>110</v>
       </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>111</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>112</v>
-      </c>
-      <c r="L4" t="s">
-        <v>113</v>
-      </c>
-      <c r="M4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -3319,7 +4384,7 @@
     </row>
     <row r="21" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B21" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -3338,7 +4403,7 @@
     </row>
     <row r="22" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B22" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -3352,6 +4417,25 @@
       <c r="L22" s="29"/>
       <c r="M22" s="30">
         <f>SUM(Tabela5711[Valor de Entrega])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B23" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="55">
+        <f>SUM(IF(FREQUENCY(Tabela5711[Id da Venda],Tabela5711[Id da Venda])&gt;0,1,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -3401,33 +4485,33 @@
   <sheetData>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="P6" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="9">
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N7" s="9">
         <v>2.8405</v>
@@ -3436,18 +4520,18 @@
         <v>2.99</v>
       </c>
       <c r="P7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C8" s="9">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N8" s="9">
         <v>1.0580000000000001</v>
@@ -3456,18 +4540,18 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="P8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" s="9">
         <v>6.5</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N9" s="9">
         <v>2.3406000000000002</v>
@@ -3476,18 +4560,18 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="P9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C10" s="9">
         <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N10" s="9">
         <v>1.8506999999999998</v>
@@ -3496,18 +4580,18 @@
         <v>1.99</v>
       </c>
       <c r="P10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" s="9">
         <v>6.5</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N11" s="9">
         <v>1.0924999999999998</v>
@@ -3516,12 +4600,12 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="P11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N12" s="9">
         <v>0.74260000000000004</v>
@@ -3530,12 +4614,12 @@
         <v>0.79</v>
       </c>
       <c r="P12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N13" s="9">
         <v>14.469000000000001</v>
@@ -3544,12 +4628,12 @@
         <v>15.9</v>
       </c>
       <c r="P13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N14" s="9">
         <v>3.6309000000000005</v>
@@ -3558,12 +4642,12 @@
         <v>3.99</v>
       </c>
       <c r="P14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N15" s="9">
         <v>2.1023999999999998</v>
@@ -3572,12 +4656,12 @@
         <v>2.19</v>
       </c>
       <c r="P15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N16" s="9">
         <v>4.5409000000000006</v>
@@ -3586,12 +4670,12 @@
         <v>4.99</v>
       </c>
       <c r="P16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N17" s="9">
         <v>6.3449999999999998</v>
@@ -3600,12 +4684,12 @@
         <v>6.75</v>
       </c>
       <c r="P17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N18" s="9">
         <v>2.3660000000000001</v>
@@ -3614,12 +4698,12 @@
         <v>2.6</v>
       </c>
       <c r="P18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N19" s="9">
         <v>4.0659999999999998</v>
@@ -3628,12 +4712,12 @@
         <v>4.28</v>
       </c>
       <c r="P19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N20" s="9">
         <v>6.4216000000000006</v>
@@ -3642,12 +4726,12 @@
         <v>6.98</v>
       </c>
       <c r="P20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N21" s="9">
         <v>1.3708</v>
@@ -3656,12 +4740,12 @@
         <v>1.49</v>
       </c>
       <c r="P21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N22" s="9">
         <v>2.6299000000000001</v>
@@ -3670,12 +4754,12 @@
         <v>2.89</v>
       </c>
       <c r="P22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N23" s="9">
         <v>22.226999999999997</v>
@@ -3684,12 +4768,12 @@
         <v>23.9</v>
       </c>
       <c r="P23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N24" s="9">
         <v>23.827999999999999</v>
@@ -3698,12 +4782,12 @@
         <v>25.9</v>
       </c>
       <c r="P24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N25" s="9">
         <v>2.1749000000000001</v>
@@ -3712,12 +4796,12 @@
         <v>2.39</v>
       </c>
       <c r="P25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N26" s="9">
         <v>3.2084999999999999</v>
@@ -3726,12 +4810,12 @@
         <v>3.45</v>
       </c>
       <c r="P26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N27" s="9">
         <v>5.3544000000000009</v>
@@ -3740,12 +4824,12 @@
         <v>5.82</v>
       </c>
       <c r="P27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N28" s="9">
         <v>9.1009999999999991</v>
@@ -3754,12 +4838,12 @@
         <v>9.58</v>
       </c>
       <c r="P28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N29" s="9">
         <v>26.012999999999998</v>
@@ -3768,12 +4852,12 @@
         <v>29.9</v>
       </c>
       <c r="P29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N30" s="9">
         <v>46.664999999999999</v>
@@ -3782,7 +4866,7 @@
         <v>54.9</v>
       </c>
       <c r="P30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3816,7 +4900,7 @@
     <row r="2" spans="1:19" s="2" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3839,22 +4923,22 @@
     <row r="3" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
         <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -3868,7 +4952,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
@@ -3878,7 +4962,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3">
         <v>10000</v>
@@ -3887,7 +4971,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="3">
         <v>500</v>
@@ -3905,7 +4989,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" s="3">
         <v>2500</v>
@@ -3917,7 +5001,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F11" s="3">
         <v>1500</v>
@@ -3944,7 +5028,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" s="3">
         <f>SUM(F15:F19)</f>
@@ -3953,7 +5037,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15" s="3">
         <v>800</v>
@@ -3962,7 +5046,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" s="3">
         <v>3200</v>
@@ -3971,7 +5055,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
@@ -3980,7 +5064,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F18" s="3">
         <v>800</v>
@@ -4007,7 +5091,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3">
@@ -4017,7 +5101,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F22" s="3">
         <v>1650</v>
@@ -4026,7 +5110,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="3">
         <v>3000</v>
@@ -4035,7 +5119,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="3">
         <v>3000</v>
@@ -4044,7 +5128,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="3">
         <v>2700</v>
@@ -4053,7 +5137,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F26" s="3">
         <v>1500</v>
@@ -4088,7 +5172,7 @@
     </row>
     <row r="31" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B31" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -4101,7 +5185,7 @@
     </row>
     <row r="32" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B32" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -4114,7 +5198,7 @@
     </row>
     <row r="33" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B33" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -4168,7 +5252,7 @@
     <row r="2" spans="1:25" s="2" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4197,28 +5281,28 @@
     <row r="3" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
         <v>61</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>63</v>
-      </c>
-      <c r="H4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -4226,10 +5310,10 @@
         <v>42190</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4253,10 +5337,10 @@
         <v>42190</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4280,10 +5364,10 @@
         <v>42189</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4307,10 +5391,10 @@
         <v>42189</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4336,10 +5420,10 @@
         <v>42189</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4363,10 +5447,10 @@
         <v>42189</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4390,10 +5474,10 @@
         <v>42188</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4417,10 +5501,10 @@
         <v>42188</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4444,10 +5528,10 @@
         <v>42188</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4473,10 +5557,10 @@
         <v>42188</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4500,10 +5584,10 @@
         <v>42188</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4527,10 +5611,10 @@
         <v>42188</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4554,10 +5638,10 @@
         <v>42188</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4583,10 +5667,10 @@
         <v>42188</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4612,10 +5696,10 @@
         <v>42188</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4639,10 +5723,10 @@
         <v>42187</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E20" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4666,10 +5750,10 @@
         <v>42187</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E21" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4693,10 +5777,10 @@
         <v>42187</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E22" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4722,10 +5806,10 @@
         <v>42187</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E23" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4749,10 +5833,10 @@
         <v>42187</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E24" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4776,10 +5860,10 @@
         <v>42187</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E25" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4803,10 +5887,10 @@
         <v>42187</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E26" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -4833,7 +5917,7 @@
     </row>
     <row r="28" spans="2:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -4891,7 +5975,7 @@
     <row r="2" spans="1:25" s="2" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4920,27 +6004,27 @@
     <row r="3" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" s="7">
         <v>42129</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E6" s="3">
         <v>400000</v>
@@ -4948,7 +6032,7 @@
     </row>
     <row r="7" spans="1:25" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="10"/>
@@ -4958,7 +6042,7 @@
     </row>
     <row r="8" spans="1:25" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="10"/>
@@ -4968,7 +6052,7 @@
     </row>
     <row r="9" spans="1:25" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="10"/>
@@ -4988,7 +6072,7 @@
     </row>
     <row r="12" spans="1:25" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -5022,7 +6106,7 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5038,37 +6122,37 @@
   <sheetData>
     <row r="2" spans="2:8" s="19" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2" s="21"/>
     </row>
     <row r="3" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
         <v>101</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>102</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>103</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>104</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>105</v>
-      </c>
-      <c r="G5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B6,Tabela2[Mercadoria],0),1),"")</f>
@@ -5092,7 +6176,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B7,Tabela2[Mercadoria],0),1),"")</f>
@@ -5116,7 +6200,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B8,Tabela2[Mercadoria],0),1),"")</f>
@@ -5140,7 +6224,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B9,Tabela2[Mercadoria],0),1),"")</f>
@@ -5164,7 +6248,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B10,Tabela2[Mercadoria],0),1),"")</f>
@@ -5188,7 +6272,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B11,Tabela2[Mercadoria],0),1),"")</f>
@@ -5212,7 +6296,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B12,Tabela2[Mercadoria],0),1),"")</f>
@@ -5236,7 +6320,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B13,Tabela2[Mercadoria],0),1),"")</f>
@@ -5260,7 +6344,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B14,Tabela2[Mercadoria],0),1),"")</f>
@@ -5284,7 +6368,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B15,Tabela2[Mercadoria],0),1),"")</f>
@@ -5308,7 +6392,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B16,Tabela2[Mercadoria],0),1),"")</f>
@@ -5332,7 +6416,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B17,Tabela2[Mercadoria],0),1),"")</f>
@@ -5356,7 +6440,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B18,Tabela2[Mercadoria],0),1),"")</f>
@@ -5380,7 +6464,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B19,Tabela2[Mercadoria],0),1),"")</f>
@@ -5404,7 +6488,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" s="7" t="str">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B20,Tabela2[Mercadoria],0),1),"")</f>
@@ -5428,7 +6512,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C21" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B21,Tabela2[Mercadoria],0),1),"")</f>
@@ -5452,7 +6536,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B22,Tabela2[Mercadoria],0),1),"")</f>
@@ -5476,7 +6560,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="7" t="str">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B23,Tabela2[Mercadoria],0),1),"")</f>
@@ -5500,7 +6584,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" s="7" t="str">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B24,Tabela2[Mercadoria],0),1),"")</f>
@@ -5524,7 +6608,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B25,Tabela2[Mercadoria],0),1),"")</f>
@@ -5548,7 +6632,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="7" t="str">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B26,Tabela2[Mercadoria],0),1),"")</f>
@@ -5572,7 +6656,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="7" t="str">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B27,Tabela2[Mercadoria],0),1),"")</f>
@@ -5596,7 +6680,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B28,Tabela2[Mercadoria],0),1),"")</f>
@@ -5620,7 +6704,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29" s="7" t="str">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B29,Tabela2[Mercadoria],0),1),"")</f>
@@ -5644,10 +6728,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H6:H29">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Atenção">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Atenção">
       <formula>NOT(ISERROR(SEARCH("Atenção",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Comprar">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Comprar">
       <formula>NOT(ISERROR(SEARCH("Comprar",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5668,22 +6752,22 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5693,33 +6777,581 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B3:B5"/>
+  <dimension ref="B2:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>7</v>
+    <row r="2" spans="2:13" s="23" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M4" s="53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="38"/>
+    </row>
+    <row r="10" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B10" s="36"/>
+      <c r="C10" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="46">
+        <f>'Semana 1'!M32</f>
+        <v>655.91200000000026</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="11" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="36"/>
+      <c r="C11" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="48">
+        <f>'Semana 2'!M21</f>
+        <v>62.9</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="38"/>
+    </row>
+    <row r="12" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="36"/>
+      <c r="C12" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="48">
+        <f>'Semana 3'!M21</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="38"/>
+    </row>
+    <row r="13" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B13" s="36"/>
+      <c r="C13" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="48">
+        <f>'Semana 4'!M21</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="38"/>
+    </row>
+    <row r="14" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B14" s="36"/>
+      <c r="C14" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="50">
+        <f>'Semana 5'!M21</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="38"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="36"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="38"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="36"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="38"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="36"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="38"/>
+    </row>
+    <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="36"/>
+      <c r="C18" s="51" t="str">
+        <f>"Total de Vendas de " &amp; M4</f>
+        <v>Total de Vendas de Julho</v>
+      </c>
+      <c r="D18" s="52">
+        <f>SUM(D10:D14)</f>
+        <v>718.81200000000024</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="38"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="38"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="41"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="42"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="38"/>
+    </row>
+    <row r="28" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B28" s="36"/>
+      <c r="C28" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="54"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="38"/>
+    </row>
+    <row r="29" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B29" s="36"/>
+      <c r="C29" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="38"/>
+    </row>
+    <row r="30" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B30" s="36"/>
+      <c r="C30" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="50">
+        <f>SUM('Semana 1'!M33,'Semana 2'!M22,'Semana 3'!M22,'Semana 4'!M22,'Semana 5'!M22)</f>
+        <v>48.5</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="38"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="38"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="38"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="38"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="38"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="38"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="38"/>
+    </row>
+    <row r="37" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B37" s="36"/>
+      <c r="C37" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="52"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="38"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="38"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="38"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="38"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="41"/>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C632A9DC-7B01-4617-A53F-EAA1F10253E3}">
-  <dimension ref="B2:M33"/>
+  <dimension ref="B2:M34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5740,47 +7372,47 @@
   <sheetData>
     <row r="2" spans="2:13" s="23" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>109</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>110</v>
       </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>111</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>112</v>
-      </c>
-      <c r="L4" t="s">
-        <v>113</v>
-      </c>
-      <c r="M4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -5791,7 +7423,7 @@
         <v>42190</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -5810,7 +7442,7 @@
       </c>
       <c r="I5" s="6"/>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K5" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B6,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -5833,7 +7465,7 @@
         <v>42190</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -5852,7 +7484,7 @@
       </c>
       <c r="I6" s="6"/>
       <c r="J6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K6" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B7,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -5875,7 +7507,7 @@
         <v>42190</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -5896,7 +7528,7 @@
         <v>0.05</v>
       </c>
       <c r="J7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K7" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B8,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -5919,7 +7551,7 @@
         <v>42190</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -5940,7 +7572,7 @@
         <v>0.05</v>
       </c>
       <c r="J8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K8" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B9,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -5963,7 +7595,7 @@
         <v>42189</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -5982,7 +7614,7 @@
       </c>
       <c r="I9" s="6"/>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K9" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B10,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6005,7 +7637,7 @@
         <v>42189</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6024,7 +7656,7 @@
       </c>
       <c r="I10" s="6"/>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K10" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B11,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6047,7 +7679,7 @@
         <v>42189</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6066,7 +7698,7 @@
       </c>
       <c r="I11" s="6"/>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K11" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B12,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6089,7 +7721,7 @@
         <v>42189</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E12" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6108,7 +7740,7 @@
       </c>
       <c r="I12" s="6"/>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K12" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B13,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6131,7 +7763,7 @@
         <v>42188</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6150,7 +7782,7 @@
       </c>
       <c r="I13" s="6"/>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K13" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B14,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6173,7 +7805,7 @@
         <v>42188</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6192,7 +7824,7 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K14" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B15,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6215,7 +7847,7 @@
         <v>42188</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6234,7 +7866,7 @@
       </c>
       <c r="I15" s="6"/>
       <c r="J15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K15" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B16,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6257,7 +7889,7 @@
         <v>42188</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6276,7 +7908,7 @@
       </c>
       <c r="I16" s="6"/>
       <c r="J16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K16" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B17,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6299,7 +7931,7 @@
         <v>42188</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6320,7 +7952,7 @@
         <v>0.05</v>
       </c>
       <c r="J17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K17" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B18,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6343,7 +7975,7 @@
         <v>42188</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6364,7 +7996,7 @@
         <v>0.05</v>
       </c>
       <c r="J18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K18" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B19,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6387,7 +8019,7 @@
         <v>42188</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6405,7 +8037,7 @@
         <v>1.58</v>
       </c>
       <c r="J19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K19" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B20,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6428,7 +8060,7 @@
         <v>42188</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6446,7 +8078,7 @@
         <v>95.4</v>
       </c>
       <c r="J20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K20" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B21,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6469,7 +8101,7 @@
         <v>42188</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6487,7 +8119,7 @@
         <v>26.28</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K21" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B22,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6510,7 +8142,7 @@
         <v>42187</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E22" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6528,7 +8160,7 @@
         <v>8.9700000000000006</v>
       </c>
       <c r="J22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K22" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B23,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6551,7 +8183,7 @@
         <v>42187</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E23" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6569,7 +8201,7 @@
         <v>3.98</v>
       </c>
       <c r="J23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K23" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B24,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6592,7 +8224,7 @@
         <v>42187</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E24" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6610,7 +8242,7 @@
         <v>12.450000000000001</v>
       </c>
       <c r="J24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K24" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B25,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6633,7 +8265,7 @@
         <v>42187</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E25" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6651,7 +8283,7 @@
         <v>8.94</v>
       </c>
       <c r="J25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K25" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B26,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6674,7 +8306,7 @@
         <v>42187</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6692,7 +8324,7 @@
         <v>1.99</v>
       </c>
       <c r="J26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K26" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B27,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6715,7 +8347,7 @@
         <v>42187</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E27" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6733,7 +8365,7 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="J27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K27" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B28,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6756,7 +8388,7 @@
         <v>42187</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E28" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6774,7 +8406,7 @@
         <v>3.4499999999999997</v>
       </c>
       <c r="J28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K28" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B29,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6797,7 +8429,7 @@
         <v>42187</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E29" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6815,7 +8447,7 @@
         <v>1.99</v>
       </c>
       <c r="J29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K29" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B30,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -6832,7 +8464,7 @@
     </row>
     <row r="32" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B32" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
@@ -6851,7 +8483,7 @@
     </row>
     <row r="33" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B33" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
@@ -6866,6 +8498,25 @@
       <c r="M33" s="30">
         <f>SUM(Tabela5[Valor de Entrega])</f>
         <v>40.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B34" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="55">
+        <f>SUM(IF(FREQUENCY(Tabela5[Id da Venda],Tabela5[Id da Venda])&gt;0,1,0))</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -6896,10 +8547,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BD89DD-8E74-475E-938D-4416B6403A0F}">
-  <dimension ref="B2:M22"/>
+  <dimension ref="B2:M23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6920,47 +8571,47 @@
   <sheetData>
     <row r="2" spans="2:13" s="23" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>109</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>110</v>
       </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>111</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>112</v>
-      </c>
-      <c r="L4" t="s">
-        <v>113</v>
-      </c>
-      <c r="M4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -6971,7 +8622,7 @@
         <v>42139</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" t="str">
         <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -6990,7 +8641,7 @@
       </c>
       <c r="I5" s="6"/>
       <c r="J5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K5" s="9">
         <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
@@ -7358,7 +9009,7 @@
     </row>
     <row r="21" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B21" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -7377,7 +9028,7 @@
     </row>
     <row r="22" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B22" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -7392,6 +9043,25 @@
       <c r="M22" s="30">
         <f>SUM(Tabela57[Valor de Entrega])</f>
         <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B23" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="55">
+        <f>SUM(IF(FREQUENCY(Tabela57[Id da Venda],Tabela57[Id da Venda])&gt;0,1,0))</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Controle Mercado.xlsx
+++ b/Controle Mercado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Karen\Excel\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E934A5FC-E8DF-4BD0-B641-01F5DAC7FAD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D88C47-D2C6-4152-B00E-CA65F869D7ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">cálculos!$M$6:$P$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Resultados!$C$4:$E$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="147">
   <si>
     <t>Manutenção de Equipamentos</t>
   </si>
@@ -69,15 +70,6 @@
     <t>Receita Líquida</t>
   </si>
   <si>
-    <t>Lucro Operacional Bruto</t>
-  </si>
-  <si>
-    <t>Faturamento Bruto</t>
-  </si>
-  <si>
-    <t>Lucro Líquido</t>
-  </si>
-  <si>
     <t>Salários</t>
   </si>
   <si>
@@ -339,9 +331,6 @@
     <t>Documentação, Sistema de Informação, Estrutura Inicial, Sistema de Refrigeração, Equipamentos</t>
   </si>
   <si>
-    <t>Total Investido</t>
-  </si>
-  <si>
     <t>Controle de Estoque</t>
   </si>
   <si>
@@ -460,6 +449,45 @@
   </si>
   <si>
     <t>Número de Vendas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendas </t>
+  </si>
+  <si>
+    <t>Resultados</t>
+  </si>
+  <si>
+    <t>Total de Receitas</t>
+  </si>
+  <si>
+    <t>Imposto</t>
+  </si>
+  <si>
+    <t>Imposto sobre Receita</t>
+  </si>
+  <si>
+    <t>Resultado Bruto</t>
+  </si>
+  <si>
+    <t>Depreciação e Amortização</t>
+  </si>
+  <si>
+    <t>Resultado antes do Imposto</t>
+  </si>
+  <si>
+    <t>Resultado Líquido</t>
+  </si>
+  <si>
+    <t>Receita das Entregas</t>
+  </si>
+  <si>
+    <t>Receita Mercadorias</t>
+  </si>
+  <si>
+    <t>Despesas Mercadorias</t>
+  </si>
+  <si>
+    <t>Total Investimentos</t>
   </si>
 </sst>
 </file>
@@ -469,7 +497,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,6 +595,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -594,7 +637,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -751,13 +794,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -838,6 +919,17 @@
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1297,7 +1389,778 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vendas!$C$29:$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Vendas por Entrega (R$)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Receita de Entregas (R$)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vendas!$D$29:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>394.61200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1909-4C4B-9C12-50FF0FA9EA59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="47453344"/>
+        <c:axId val="41330448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="47453344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41330448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="41330448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47453344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DFE3-44EC-ACC6-B06B3895084F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DFE3-44EC-ACC6-B06B3895084F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DFE3-44EC-ACC6-B06B3895084F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DFE3-44EC-ACC6-B06B3895084F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DFE3-44EC-ACC6-B06B3895084F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vendas!$C$49:$C$53</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Loja</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Centro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Zona Norte</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Zona Oeste</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Zona Sul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vendas!$D$49:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6437-479F-B6CE-B0C8A879D037}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1480,6 +2343,1045 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="219">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr/>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2387,6 +4289,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1112520</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074F3F7D-777D-4331-881F-0C9FAA57A53C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>108965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>960120</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846FAAD6-09FF-464F-933F-1586F6318C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2901,8 +4875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2917,7 +4891,7 @@
   <dimension ref="B2:M23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2938,47 +4912,47 @@
   <sheetData>
     <row r="2" spans="2:13" s="23" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" t="s">
         <v>107</v>
       </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
         <v>108</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -3346,7 +5320,7 @@
     </row>
     <row r="21" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B21" s="26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -3365,7 +5339,7 @@
     </row>
     <row r="22" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B22" s="28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -3384,7 +5358,7 @@
     </row>
     <row r="23" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B23" s="28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
@@ -3453,47 +5427,47 @@
   <sheetData>
     <row r="2" spans="2:13" s="23" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" t="s">
         <v>107</v>
       </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
         <v>108</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -3865,7 +5839,7 @@
     </row>
     <row r="21" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B21" s="26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -3884,7 +5858,7 @@
     </row>
     <row r="22" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B22" s="28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -3903,7 +5877,7 @@
     </row>
     <row r="23" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B23" s="28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
@@ -3951,7 +5925,7 @@
   <dimension ref="B2:M23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3972,47 +5946,47 @@
   <sheetData>
     <row r="2" spans="2:13" s="23" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" t="s">
         <v>107</v>
       </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
         <v>108</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -4384,7 +6358,7 @@
     </row>
     <row r="21" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B21" s="26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -4403,7 +6377,7 @@
     </row>
     <row r="22" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B22" s="28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -4422,7 +6396,7 @@
     </row>
     <row r="23" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B23" s="28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
@@ -4485,33 +6459,33 @@
   <sheetData>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C7" s="9">
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N7" s="9">
         <v>2.8405</v>
@@ -4520,18 +6494,18 @@
         <v>2.99</v>
       </c>
       <c r="P7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C8" s="9">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N8" s="9">
         <v>1.0580000000000001</v>
@@ -4540,18 +6514,18 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="P8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C9" s="9">
         <v>6.5</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N9" s="9">
         <v>2.3406000000000002</v>
@@ -4560,18 +6534,18 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="P9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C10" s="9">
         <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N10" s="9">
         <v>1.8506999999999998</v>
@@ -4580,18 +6554,18 @@
         <v>1.99</v>
       </c>
       <c r="P10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C11" s="9">
         <v>6.5</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N11" s="9">
         <v>1.0924999999999998</v>
@@ -4600,12 +6574,12 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="P11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N12" s="9">
         <v>0.74260000000000004</v>
@@ -4614,12 +6588,12 @@
         <v>0.79</v>
       </c>
       <c r="P12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N13" s="9">
         <v>14.469000000000001</v>
@@ -4628,12 +6602,12 @@
         <v>15.9</v>
       </c>
       <c r="P13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N14" s="9">
         <v>3.6309000000000005</v>
@@ -4642,12 +6616,12 @@
         <v>3.99</v>
       </c>
       <c r="P14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N15" s="9">
         <v>2.1023999999999998</v>
@@ -4656,12 +6630,12 @@
         <v>2.19</v>
       </c>
       <c r="P15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N16" s="9">
         <v>4.5409000000000006</v>
@@ -4670,12 +6644,12 @@
         <v>4.99</v>
       </c>
       <c r="P16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N17" s="9">
         <v>6.3449999999999998</v>
@@ -4684,12 +6658,12 @@
         <v>6.75</v>
       </c>
       <c r="P17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N18" s="9">
         <v>2.3660000000000001</v>
@@ -4698,12 +6672,12 @@
         <v>2.6</v>
       </c>
       <c r="P18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N19" s="9">
         <v>4.0659999999999998</v>
@@ -4712,12 +6686,12 @@
         <v>4.28</v>
       </c>
       <c r="P19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N20" s="9">
         <v>6.4216000000000006</v>
@@ -4726,12 +6700,12 @@
         <v>6.98</v>
       </c>
       <c r="P20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N21" s="9">
         <v>1.3708</v>
@@ -4740,12 +6714,12 @@
         <v>1.49</v>
       </c>
       <c r="P21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N22" s="9">
         <v>2.6299000000000001</v>
@@ -4754,12 +6728,12 @@
         <v>2.89</v>
       </c>
       <c r="P22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N23" s="9">
         <v>22.226999999999997</v>
@@ -4768,12 +6742,12 @@
         <v>23.9</v>
       </c>
       <c r="P23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N24" s="9">
         <v>23.827999999999999</v>
@@ -4782,12 +6756,12 @@
         <v>25.9</v>
       </c>
       <c r="P24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N25" s="9">
         <v>2.1749000000000001</v>
@@ -4796,12 +6770,12 @@
         <v>2.39</v>
       </c>
       <c r="P25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N26" s="9">
         <v>3.2084999999999999</v>
@@ -4810,12 +6784,12 @@
         <v>3.45</v>
       </c>
       <c r="P26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N27" s="9">
         <v>5.3544000000000009</v>
@@ -4824,12 +6798,12 @@
         <v>5.82</v>
       </c>
       <c r="P27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N28" s="9">
         <v>9.1009999999999991</v>
@@ -4838,12 +6812,12 @@
         <v>9.58</v>
       </c>
       <c r="P28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N29" s="9">
         <v>26.012999999999998</v>
@@ -4852,12 +6826,12 @@
         <v>29.9</v>
       </c>
       <c r="P29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N30" s="9">
         <v>46.664999999999999</v>
@@ -4866,7 +6840,7 @@
         <v>54.9</v>
       </c>
       <c r="P30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4883,7 +6857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:S33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -4900,7 +6874,7 @@
     <row r="2" spans="1:19" s="2" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4923,22 +6897,22 @@
     <row r="3" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -4952,7 +6926,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
@@ -4962,7 +6936,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3">
         <v>10000</v>
@@ -4971,7 +6945,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3">
         <v>500</v>
@@ -4989,7 +6963,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F10" s="3">
         <v>2500</v>
@@ -5001,7 +6975,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3">
         <v>1500</v>
@@ -5028,7 +7002,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G14" s="3">
         <f>SUM(F15:F19)</f>
@@ -5037,7 +7011,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F15" s="3">
         <v>800</v>
@@ -5046,7 +7020,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F16" s="3">
         <v>3200</v>
@@ -5055,7 +7029,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
@@ -5064,7 +7038,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F18" s="3">
         <v>800</v>
@@ -5091,7 +7065,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3">
@@ -5101,7 +7075,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F22" s="3">
         <v>1650</v>
@@ -5110,7 +7084,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F23" s="3">
         <v>3000</v>
@@ -5119,7 +7093,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F24" s="3">
         <v>3000</v>
@@ -5128,7 +7102,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F25" s="3">
         <v>2700</v>
@@ -5137,7 +7111,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F26" s="3">
         <v>1500</v>
@@ -5172,7 +7146,7 @@
     </row>
     <row r="31" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B31" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -5185,7 +7159,7 @@
     </row>
     <row r="32" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B32" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -5198,7 +7172,7 @@
     </row>
     <row r="33" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B33" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -5233,8 +7207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Y28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5252,7 +7226,7 @@
     <row r="2" spans="1:25" s="2" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5281,28 +7255,28 @@
     <row r="3" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
         <v>59</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -5310,10 +7284,10 @@
         <v>42190</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5337,10 +7311,10 @@
         <v>42190</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5364,10 +7338,10 @@
         <v>42189</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5391,10 +7365,10 @@
         <v>42189</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5420,10 +7394,10 @@
         <v>42189</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5447,10 +7421,10 @@
         <v>42189</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5474,10 +7448,10 @@
         <v>42188</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5501,10 +7475,10 @@
         <v>42188</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E12" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5528,10 +7502,10 @@
         <v>42188</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E13" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5557,10 +7531,10 @@
         <v>42188</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E14" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5584,10 +7558,10 @@
         <v>42188</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E15" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5611,10 +7585,10 @@
         <v>42188</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5638,10 +7612,10 @@
         <v>42188</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E17" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5667,10 +7641,10 @@
         <v>42188</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5696,10 +7670,10 @@
         <v>42188</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E19" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5723,10 +7697,10 @@
         <v>42187</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E20" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5750,10 +7724,10 @@
         <v>42187</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E21" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5777,10 +7751,10 @@
         <v>42187</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E22" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5806,10 +7780,10 @@
         <v>42187</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E23" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5833,10 +7807,10 @@
         <v>42187</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E24" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5860,10 +7834,10 @@
         <v>42187</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5887,10 +7861,10 @@
         <v>42187</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E26" t="str">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Mercadoria]],cálculos!$M$7:$P$35,4,FALSE),"")</f>
@@ -5917,7 +7891,7 @@
     </row>
     <row r="28" spans="2:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -5975,7 +7949,7 @@
     <row r="2" spans="1:25" s="2" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6004,27 +7978,27 @@
     <row r="3" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6" s="7">
         <v>42129</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E6" s="3">
         <v>400000</v>
@@ -6032,7 +8006,7 @@
     </row>
     <row r="7" spans="1:25" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="10"/>
@@ -6042,7 +8016,7 @@
     </row>
     <row r="8" spans="1:25" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="10"/>
@@ -6052,7 +8026,7 @@
     </row>
     <row r="9" spans="1:25" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="10"/>
@@ -6072,7 +8046,7 @@
     </row>
     <row r="12" spans="1:25" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="11" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -6106,7 +8080,7 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6122,37 +8096,37 @@
   <sheetData>
     <row r="2" spans="2:8" s="19" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E2" s="21"/>
     </row>
     <row r="3" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
         <v>99</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>100</v>
       </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
         <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B6,Tabela2[Mercadoria],0),1),"")</f>
@@ -6176,7 +8150,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B7,Tabela2[Mercadoria],0),1),"")</f>
@@ -6200,7 +8174,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B8,Tabela2[Mercadoria],0),1),"")</f>
@@ -6224,7 +8198,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B9,Tabela2[Mercadoria],0),1),"")</f>
@@ -6248,7 +8222,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B10,Tabela2[Mercadoria],0),1),"")</f>
@@ -6272,7 +8246,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B11,Tabela2[Mercadoria],0),1),"")</f>
@@ -6296,7 +8270,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B12,Tabela2[Mercadoria],0),1),"")</f>
@@ -6320,7 +8294,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B13,Tabela2[Mercadoria],0),1),"")</f>
@@ -6344,7 +8318,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B14,Tabela2[Mercadoria],0),1),"")</f>
@@ -6368,7 +8342,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B15,Tabela2[Mercadoria],0),1),"")</f>
@@ -6392,7 +8366,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B16,Tabela2[Mercadoria],0),1),"")</f>
@@ -6416,7 +8390,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B17,Tabela2[Mercadoria],0),1),"")</f>
@@ -6440,7 +8414,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B18,Tabela2[Mercadoria],0),1),"")</f>
@@ -6464,7 +8438,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B19,Tabela2[Mercadoria],0),1),"")</f>
@@ -6488,7 +8462,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C20" s="7" t="str">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B20,Tabela2[Mercadoria],0),1),"")</f>
@@ -6512,7 +8486,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C21" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B21,Tabela2[Mercadoria],0),1),"")</f>
@@ -6536,7 +8510,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B22,Tabela2[Mercadoria],0),1),"")</f>
@@ -6560,7 +8534,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C23" s="7" t="str">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B23,Tabela2[Mercadoria],0),1),"")</f>
@@ -6584,7 +8558,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C24" s="7" t="str">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B24,Tabela2[Mercadoria],0),1),"")</f>
@@ -6608,7 +8582,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C25" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B25,Tabela2[Mercadoria],0),1),"")</f>
@@ -6632,7 +8606,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C26" s="7" t="str">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B26,Tabela2[Mercadoria],0),1),"")</f>
@@ -6656,7 +8630,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C27" s="7" t="str">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B27,Tabela2[Mercadoria],0),1),"")</f>
@@ -6680,7 +8654,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C28" s="7">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B28,Tabela2[Mercadoria],0),1),"")</f>
@@ -6704,7 +8678,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C29" s="7" t="str">
         <f>IFERROR(INDEX(Tabela2[],MATCH(B29,Tabela2[Mercadoria],0),1),"")</f>
@@ -6744,51 +8718,228 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B3:B12"/>
+  <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" customWidth="1"/>
+    <col min="5" max="5" width="52.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="1" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" s="23" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57">
+        <f>SUM(E5:E6)</f>
+        <v>718.81200000000024</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="58"/>
+      <c r="D5" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="60">
+        <f>Vendas!D18-Resultados!E6</f>
+        <v>670.31200000000024</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="61">
+        <f>Vendas!D30</f>
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="61"/>
+    </row>
+    <row r="8" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="58"/>
+      <c r="E8" s="61">
+        <f>0.15*E4</f>
+        <v>107.82180000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="62" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63">
+        <f>E4-E8</f>
+        <v>610.99020000000019</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57">
+        <f>SUM(E12:E13)</f>
+        <v>59464.599869999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C12" s="58"/>
+      <c r="D12" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="60">
+        <f>'Compras Mercadorias'!I28</f>
+        <v>14057.59987</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C13" s="58"/>
+      <c r="D13" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="61">
+        <f>Despesas!G31</f>
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+    </row>
+    <row r="15" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66">
+        <f>E4-E11</f>
+        <v>-58745.78787</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="61"/>
+    </row>
+    <row r="17" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="61">
+        <f>Investimentos!E12</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="61"/>
+    </row>
+    <row r="19" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="61">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="61"/>
+    </row>
+    <row r="21" spans="3:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66">
+        <f>E15-E17-E19</f>
+        <v>-459045.78787</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="61"/>
+    </row>
+    <row r="23" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C23" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="61">
+        <f>IF(E21&gt;1000,0.3*E21,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="61"/>
+    </row>
+    <row r="25" spans="3:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66">
+        <f>E21-E23</f>
+        <v>-459045.78787</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:M61"/>
+  <dimension ref="B2:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.88671875" customWidth="1"/>
     <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="14.109375" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
@@ -6801,14 +8952,14 @@
   <sheetData>
     <row r="2" spans="2:13" s="23" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C2" s="25"/>
     </row>
     <row r="3" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="M4" s="53" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -6865,7 +9016,7 @@
     <row r="10" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="36"/>
       <c r="C10" s="45" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D10" s="46">
         <f>'Semana 1'!M32</f>
@@ -6884,7 +9035,7 @@
     <row r="11" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="36"/>
       <c r="C11" s="47" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D11" s="48">
         <f>'Semana 2'!M21</f>
@@ -6903,7 +9054,7 @@
     <row r="12" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="36"/>
       <c r="C12" s="47" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D12" s="48">
         <f>'Semana 3'!M21</f>
@@ -6922,7 +9073,7 @@
     <row r="13" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="36"/>
       <c r="C13" s="47" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D13" s="48">
         <f>'Semana 4'!M21</f>
@@ -6941,7 +9092,7 @@
     <row r="14" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="36"/>
       <c r="C14" s="49" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D14" s="50">
         <f>'Semana 5'!M21</f>
@@ -7106,9 +9257,12 @@
     <row r="28" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="36"/>
       <c r="C28" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="54"/>
+        <v>130</v>
+      </c>
+      <c r="D28" s="54">
+        <f>SUM(COUNTIF(Tabela5[Valor de Entrega],"&gt;0"),COUNTIF(Tabela57[Valor de Entrega],"&gt;0"),COUNTIF(Tabela579[Valor de Entrega],"&gt;0"),COUNTIF(Tabela5710[Valor de Entrega],"&gt;0"),COUNTIF(Tabela5711[Valor de Entrega],"&gt;0"))/SUM('Semana 1'!M34,'Semana 2'!M23,'Semana 3'!M23,'Semana 4'!M23,'Semana 5'!M23)</f>
+        <v>0.5</v>
+      </c>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -7122,9 +9276,12 @@
     <row r="29" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="36"/>
       <c r="C29" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="48"/>
+        <v>131</v>
+      </c>
+      <c r="D29" s="48">
+        <f>SUMIF(Tabela5[Valor de Entrega],"&gt;0",Tabela5[Total para o Cliente])+SUMIF(Tabela57[Valor de Entrega],"&gt;0",Tabela57[Total para o Cliente])+SUMIF(Tabela579[Valor de Entrega],"&gt;0",Tabela579[Total para o Cliente])+SUMIF(Tabela5710[Valor de Entrega],"&gt;0",Tabela5710[Total para o Cliente])+SUMIF(Tabela5711[Valor de Entrega],"&gt;0",Tabela5711[Total para o Cliente])</f>
+        <v>394.61200000000002</v>
+      </c>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -7138,7 +9295,7 @@
     <row r="30" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B30" s="36"/>
       <c r="C30" s="49" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D30" s="50">
         <f>SUM('Semana 1'!M33,'Semana 2'!M22,'Semana 3'!M22,'Semana 4'!M22,'Semana 5'!M22)</f>
@@ -7241,9 +9398,12 @@
     <row r="37" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B37" s="36"/>
       <c r="C37" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="52"/>
+        <v>122</v>
+      </c>
+      <c r="D37" s="52">
+        <f>SUM('Semana 1'!M32,'Semana 2'!M21,'Semana 3'!M21,'Semana 4'!M21,'Semana 5'!M21)/SUM('Semana 1'!M34,'Semana 2'!M23,'Semana 3'!M23,'Semana 4'!M23,'Semana 5'!M23)</f>
+        <v>51.343714285714306</v>
+      </c>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -7309,35 +9469,292 @@
       <c r="L41" s="40"/>
       <c r="M41" s="41"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D58" t="s">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="42"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="38"/>
+    </row>
+    <row r="46" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B46" s="36"/>
+      <c r="C46" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="38"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="38"/>
+    </row>
+    <row r="48" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B48" s="36"/>
+      <c r="D48" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="38"/>
+    </row>
+    <row r="49" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B49" s="36"/>
+      <c r="C49" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="45">
+        <f>COUNTIFS(Tabela5[Entrega],Vendas!C49,Tabela5[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela57[Entrega],Vendas!C49,Tabela57[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela579[Entrega],Vendas!C49,Tabela579[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela5710[Entrega],Vendas!C49,Tabela5710[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela5711[Entrega],Vendas!C49,Tabela5711[Total para o Cliente],"&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="38"/>
+    </row>
+    <row r="50" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B50" s="36"/>
+      <c r="C50" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="47">
+        <f>COUNTIFS(Tabela5[Entrega],Vendas!C50,Tabela5[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela57[Entrega],Vendas!C50,Tabela57[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela579[Entrega],Vendas!C50,Tabela579[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela5710[Entrega],Vendas!C50,Tabela5710[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela5711[Entrega],Vendas!C50,Tabela5711[Total para o Cliente],"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="38"/>
+    </row>
+    <row r="51" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B51" s="36"/>
+      <c r="C51" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="47">
+        <f>COUNTIFS(Tabela5[Entrega],Vendas!C51,Tabela5[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela57[Entrega],Vendas!C51,Tabela57[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela579[Entrega],Vendas!C51,Tabela579[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela5710[Entrega],Vendas!C51,Tabela5710[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela5711[Entrega],Vendas!C51,Tabela5711[Total para o Cliente],"&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="38"/>
+    </row>
+    <row r="52" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B52" s="36"/>
+      <c r="C52" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="47">
+        <f>COUNTIFS(Tabela5[Entrega],Vendas!C52,Tabela5[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela57[Entrega],Vendas!C52,Tabela57[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela579[Entrega],Vendas!C52,Tabela579[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela5710[Entrega],Vendas!C52,Tabela5710[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela5711[Entrega],Vendas!C52,Tabela5711[Total para o Cliente],"&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="38"/>
+    </row>
+    <row r="53" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B53" s="36"/>
+      <c r="C53" s="49" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D60" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D61" t="s">
-        <v>119</v>
-      </c>
+      <c r="D53" s="49">
+        <f>COUNTIFS(Tabela5[Entrega],Vendas!C53,Tabela5[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela57[Entrega],Vendas!C53,Tabela57[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela579[Entrega],Vendas!C53,Tabela579[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela5710[Entrega],Vendas!C53,Tabela5710[Total para o Cliente],"&gt;0")+COUNTIFS(Tabela5711[Entrega],Vendas!C53,Tabela5711[Total para o Cliente],"&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="38"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B54" s="36"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="38"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="38"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B56" s="36"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="38"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B57" s="36"/>
+      <c r="C57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="38"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B58" s="36"/>
+      <c r="C58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="38"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="38"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B60" s="36"/>
+      <c r="C60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="38"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B61" s="36"/>
+      <c r="C61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="38"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B62" s="39"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -7348,9 +9765,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C632A9DC-7B01-4617-A53F-EAA1F10253E3}">
-  <dimension ref="B2:M34"/>
+  <dimension ref="B2:O34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -7368,54 +9785,55 @@
     <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" s="23" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" s="23" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="L4" t="s">
         <v>107</v>
       </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
         <v>108</v>
       </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>13</v>
       </c>
@@ -7423,7 +9841,7 @@
         <v>42190</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -7442,7 +9860,7 @@
       </c>
       <c r="I5" s="6"/>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K5" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B6,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -7457,7 +9875,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>13</v>
       </c>
@@ -7465,7 +9883,7 @@
         <v>42190</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -7484,7 +9902,7 @@
       </c>
       <c r="I6" s="6"/>
       <c r="J6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K6" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B7,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -7499,7 +9917,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>13</v>
       </c>
@@ -7507,7 +9925,7 @@
         <v>42190</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -7528,7 +9946,7 @@
         <v>0.05</v>
       </c>
       <c r="J7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K7" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B8,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -7543,7 +9961,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>13</v>
       </c>
@@ -7551,7 +9969,7 @@
         <v>42190</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -7572,7 +9990,7 @@
         <v>0.05</v>
       </c>
       <c r="J8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K8" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B9,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -7587,7 +10005,7 @@
         <v>219.77199999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>12</v>
       </c>
@@ -7595,7 +10013,7 @@
         <v>42189</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -7614,7 +10032,7 @@
       </c>
       <c r="I9" s="6"/>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K9" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B10,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -7628,8 +10046,9 @@
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B10,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
         <v>2.19</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>11</v>
       </c>
@@ -7637,7 +10056,7 @@
         <v>42189</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -7656,7 +10075,7 @@
       </c>
       <c r="I10" s="6"/>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K10" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B11,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -7671,7 +10090,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10</v>
       </c>
@@ -7679,7 +10098,7 @@
         <v>42189</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -7698,7 +10117,7 @@
       </c>
       <c r="I11" s="6"/>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K11" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B12,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -7713,7 +10132,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
@@ -7721,7 +10140,7 @@
         <v>42189</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E12" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -7740,7 +10159,7 @@
       </c>
       <c r="I12" s="6"/>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K12" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B13,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -7754,8 +10173,9 @@
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B13,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
         <v>35.24</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>9</v>
       </c>
@@ -7763,7 +10183,7 @@
         <v>42188</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E13" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -7782,7 +10202,7 @@
       </c>
       <c r="I13" s="6"/>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K13" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B14,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -7797,7 +10217,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>9</v>
       </c>
@@ -7805,7 +10225,7 @@
         <v>42188</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E14" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -7824,7 +10244,7 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K14" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B15,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -7838,8 +10258,9 @@
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B15,"",SUMIF(Tabela5[Id da Venda],Tabela5[[#This Row],[Id da Venda]],Tabela5[Total]))</f>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>9</v>
       </c>
@@ -7847,7 +10268,7 @@
         <v>42188</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -7866,7 +10287,7 @@
       </c>
       <c r="I15" s="6"/>
       <c r="J15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K15" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B16,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -7881,7 +10302,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>9</v>
       </c>
@@ -7889,7 +10310,7 @@
         <v>42188</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E16" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -7908,7 +10329,7 @@
       </c>
       <c r="I16" s="6"/>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K16" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B17,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -7931,7 +10352,7 @@
         <v>42188</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E17" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -7952,7 +10373,7 @@
         <v>0.05</v>
       </c>
       <c r="J17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K17" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B18,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -7975,7 +10396,7 @@
         <v>42188</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E18" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -7996,7 +10417,7 @@
         <v>0.05</v>
       </c>
       <c r="J18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K18" s="9">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B19,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -8019,7 +10440,7 @@
         <v>42188</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -8037,7 +10458,7 @@
         <v>1.58</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K19" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B20,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -8060,7 +10481,7 @@
         <v>42188</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -8078,7 +10499,7 @@
         <v>95.4</v>
       </c>
       <c r="J20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K20" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B21,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -8101,7 +10522,7 @@
         <v>42188</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E21" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -8119,7 +10540,7 @@
         <v>26.28</v>
       </c>
       <c r="J21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K21" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B22,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -8142,7 +10563,7 @@
         <v>42187</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E22" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -8160,7 +10581,7 @@
         <v>8.9700000000000006</v>
       </c>
       <c r="J22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K22" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B23,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -8183,7 +10604,7 @@
         <v>42187</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E23" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -8201,7 +10622,7 @@
         <v>3.98</v>
       </c>
       <c r="J23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K23" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B24,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -8224,7 +10645,7 @@
         <v>42187</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E24" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -8242,7 +10663,7 @@
         <v>12.450000000000001</v>
       </c>
       <c r="J24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K24" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B25,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -8265,7 +10686,7 @@
         <v>42187</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E25" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -8283,7 +10704,7 @@
         <v>8.94</v>
       </c>
       <c r="J25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K25" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B26,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -8306,7 +10727,7 @@
         <v>42187</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E26" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -8324,7 +10745,7 @@
         <v>1.99</v>
       </c>
       <c r="J26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K26" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B27,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -8347,7 +10768,7 @@
         <v>42187</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E27" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -8365,7 +10786,7 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="J27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K27" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B28,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -8388,7 +10809,7 @@
         <v>42187</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E28" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -8406,7 +10827,7 @@
         <v>3.4499999999999997</v>
       </c>
       <c r="J28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K28" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B29,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -8429,7 +10850,7 @@
         <v>42187</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E29" s="31" t="str">
         <f>IFERROR(VLOOKUP(Tabela5[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -8447,7 +10868,7 @@
         <v>1.99</v>
       </c>
       <c r="J29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K29" s="32">
         <f>IF(Tabela5[[#This Row],[Id da Venda]]=B30,0,VLOOKUP(Tabela5[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE))</f>
@@ -8464,7 +10885,7 @@
     </row>
     <row r="32" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B32" s="26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
@@ -8483,7 +10904,7 @@
     </row>
     <row r="33" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B33" s="28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
@@ -8502,7 +10923,7 @@
     </row>
     <row r="34" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B34" s="28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
@@ -8550,7 +10971,7 @@
   <dimension ref="B2:M23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8571,47 +10992,47 @@
   <sheetData>
     <row r="2" spans="2:13" s="23" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" t="s">
         <v>107</v>
       </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
         <v>108</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -8622,7 +11043,7 @@
         <v>42139</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" t="str">
         <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Produto]],cálculos!$M$7:$P$30,4,FALSE),"")</f>
@@ -8641,7 +11062,7 @@
       </c>
       <c r="I5" s="6"/>
       <c r="J5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K5" s="9">
         <f>IFERROR(VLOOKUP(Tabela57[[#This Row],[Entrega]],cálculos!$B$7:$C$11,2,FALSE),0)</f>
@@ -9009,7 +11430,7 @@
     </row>
     <row r="21" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B21" s="26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -9028,7 +11449,7 @@
     </row>
     <row r="22" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B22" s="28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -9047,7 +11468,7 @@
     </row>
     <row r="23" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B23" s="28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
